--- a/24_Agro_24.xlsx
+++ b/24_Agro_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\24-AGR-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F7305-849C-4556-A76D-B894065E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000FFCF-CC58-4BB3-9FE6-55060DBD9864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{270B01E8-BC1B-48F2-A63B-1CB23688CFEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{270B01E8-BC1B-48F2-A63B-1CB23688CFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="1369">
   <si>
     <t>title</t>
   </si>
@@ -4212,13 +4212,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4524,18 +4524,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135B143-8B24-45DC-A0A8-6A34CB095E14}">
-  <dimension ref="A1:AH554"/>
+  <dimension ref="A1:AH499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C485" sqref="C485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" customWidth="1"/>
@@ -8883,15 +8883,16 @@
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>375</v>
       </c>
+      <c r="D69" s="3"/>
       <c r="F69" t="s">
         <v>78</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -8945,15 +8946,16 @@
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>378</v>
       </c>
+      <c r="D70" s="3"/>
       <c r="F70" t="s">
         <v>78</v>
       </c>
@@ -9007,15 +9009,16 @@
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>381</v>
       </c>
+      <c r="D71" s="3"/>
       <c r="F71" t="s">
         <v>78</v>
       </c>
@@ -9038,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -9069,15 +9072,16 @@
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>384</v>
       </c>
+      <c r="D72" s="3"/>
       <c r="F72" t="s">
         <v>78</v>
       </c>
@@ -9131,15 +9135,16 @@
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>387</v>
       </c>
+      <c r="D73" s="3"/>
       <c r="F73" t="s">
         <v>78</v>
       </c>
@@ -9193,15 +9198,16 @@
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>390</v>
       </c>
+      <c r="D74" s="3"/>
       <c r="F74" t="s">
         <v>78</v>
       </c>
@@ -9224,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -9255,15 +9261,16 @@
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="D75" s="3"/>
       <c r="F75" t="s">
         <v>78</v>
       </c>
@@ -9317,15 +9324,16 @@
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>396</v>
       </c>
+      <c r="D76" s="3"/>
       <c r="F76" t="s">
         <v>78</v>
       </c>
@@ -9379,15 +9387,16 @@
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="D77" s="3"/>
       <c r="F77" t="s">
         <v>78</v>
       </c>
@@ -9441,15 +9450,16 @@
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="D78" s="3"/>
       <c r="F78" t="s">
         <v>78</v>
       </c>
@@ -9503,15 +9513,16 @@
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>405</v>
       </c>
+      <c r="D79" s="3"/>
       <c r="F79" t="s">
         <v>78</v>
       </c>
@@ -9565,15 +9576,16 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="D80" s="3"/>
       <c r="F80" t="s">
         <v>78</v>
       </c>
@@ -9627,15 +9639,16 @@
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="D81" s="3"/>
       <c r="F81" t="s">
         <v>78</v>
       </c>
@@ -9689,15 +9702,16 @@
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>414</v>
       </c>
+      <c r="D82" s="3"/>
       <c r="F82" t="s">
         <v>78</v>
       </c>
@@ -9751,15 +9765,16 @@
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>417</v>
       </c>
+      <c r="D83" s="3"/>
       <c r="F83" t="s">
         <v>78</v>
       </c>
@@ -9813,15 +9828,16 @@
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>420</v>
       </c>
+      <c r="D84" s="3"/>
       <c r="F84" t="s">
         <v>78</v>
       </c>
@@ -9875,15 +9891,16 @@
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="D85" s="3"/>
       <c r="F85" t="s">
         <v>78</v>
       </c>
@@ -9937,15 +9954,16 @@
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>426</v>
       </c>
+      <c r="D86" s="3"/>
       <c r="F86" t="s">
         <v>78</v>
       </c>
@@ -9999,15 +10017,16 @@
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="D87" s="3"/>
       <c r="F87" t="s">
         <v>78</v>
       </c>
@@ -10061,15 +10080,16 @@
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>432</v>
       </c>
+      <c r="D88" s="3"/>
       <c r="F88" t="s">
         <v>78</v>
       </c>
@@ -10123,15 +10143,16 @@
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="D89" s="3"/>
       <c r="F89" t="s">
         <v>78</v>
       </c>
@@ -10185,15 +10206,16 @@
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="D90" s="3"/>
       <c r="F90" t="s">
         <v>78</v>
       </c>
@@ -10247,15 +10269,16 @@
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="D91" s="3"/>
       <c r="F91" t="s">
         <v>78</v>
       </c>
@@ -10309,15 +10332,16 @@
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>444</v>
       </c>
+      <c r="D92" s="3"/>
       <c r="F92" t="s">
         <v>78</v>
       </c>
@@ -10371,15 +10395,16 @@
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>447</v>
       </c>
+      <c r="D93" s="3"/>
       <c r="F93" t="s">
         <v>78</v>
       </c>
@@ -10433,15 +10458,16 @@
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>450</v>
       </c>
+      <c r="D94" s="3"/>
       <c r="F94" t="s">
         <v>78</v>
       </c>
@@ -10495,15 +10521,16 @@
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>453</v>
       </c>
+      <c r="D95" s="3"/>
       <c r="F95" t="s">
         <v>78</v>
       </c>
@@ -10557,15 +10584,16 @@
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>456</v>
       </c>
+      <c r="D96" s="3"/>
       <c r="F96" t="s">
         <v>78</v>
       </c>
@@ -10619,15 +10647,16 @@
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>459</v>
       </c>
+      <c r="D97" s="3"/>
       <c r="F97" t="s">
         <v>78</v>
       </c>
@@ -10681,15 +10710,16 @@
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>462</v>
       </c>
+      <c r="D98" s="3"/>
       <c r="F98" t="s">
         <v>78</v>
       </c>
@@ -10743,15 +10773,16 @@
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="D99" s="3"/>
       <c r="F99" t="s">
         <v>78</v>
       </c>
@@ -10805,15 +10836,16 @@
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>468</v>
       </c>
+      <c r="D100" s="3"/>
       <c r="F100" t="s">
         <v>78</v>
       </c>
@@ -10867,15 +10899,16 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>471</v>
       </c>
+      <c r="D101" s="3"/>
       <c r="F101" t="s">
         <v>78</v>
       </c>
@@ -10929,15 +10962,16 @@
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>474</v>
       </c>
+      <c r="D102" s="3"/>
       <c r="F102" t="s">
         <v>78</v>
       </c>
@@ -10991,15 +11025,16 @@
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>477</v>
       </c>
+      <c r="D103" s="3"/>
       <c r="F103" t="s">
         <v>78</v>
       </c>
@@ -11053,15 +11088,16 @@
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="3" t="s">
         <v>480</v>
       </c>
+      <c r="D104" s="3"/>
       <c r="F104" t="s">
         <v>78</v>
       </c>
@@ -11115,15 +11151,16 @@
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="3" t="s">
         <v>483</v>
       </c>
+      <c r="D105" s="3"/>
       <c r="F105" t="s">
         <v>78</v>
       </c>
@@ -11177,15 +11214,16 @@
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="3" t="s">
         <v>486</v>
       </c>
+      <c r="D106" s="3"/>
       <c r="F106" t="s">
         <v>78</v>
       </c>
@@ -11239,15 +11277,16 @@
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>489</v>
       </c>
+      <c r="D107" s="3"/>
       <c r="F107" t="s">
         <v>78</v>
       </c>
@@ -11301,15 +11340,16 @@
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="D108" s="3"/>
       <c r="F108" t="s">
         <v>78</v>
       </c>
@@ -11363,15 +11403,16 @@
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="3" t="s">
         <v>495</v>
       </c>
+      <c r="D109" s="3"/>
       <c r="F109" t="s">
         <v>78</v>
       </c>
@@ -11425,15 +11466,16 @@
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>498</v>
       </c>
+      <c r="D110" s="3"/>
       <c r="F110" t="s">
         <v>78</v>
       </c>
@@ -11487,15 +11529,16 @@
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="3" t="s">
         <v>501</v>
       </c>
+      <c r="D111" s="3"/>
       <c r="F111" t="s">
         <v>78</v>
       </c>
@@ -11549,15 +11592,16 @@
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>504</v>
       </c>
+      <c r="D112" s="3"/>
       <c r="F112" t="s">
         <v>78</v>
       </c>
@@ -11611,15 +11655,16 @@
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="3" t="s">
         <v>507</v>
       </c>
+      <c r="D113" s="3"/>
       <c r="F113" t="s">
         <v>78</v>
       </c>
@@ -11673,15 +11718,16 @@
       </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="3" t="s">
         <v>510</v>
       </c>
+      <c r="D114" s="3"/>
       <c r="F114" t="s">
         <v>78</v>
       </c>
@@ -11735,15 +11781,16 @@
       </c>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>513</v>
       </c>
+      <c r="D115" s="3"/>
       <c r="F115" t="s">
         <v>78</v>
       </c>
@@ -11797,15 +11844,16 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>516</v>
       </c>
+      <c r="D116" s="3"/>
       <c r="F116" t="s">
         <v>78</v>
       </c>
@@ -11859,15 +11907,16 @@
       </c>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="D117" s="3"/>
       <c r="F117" t="s">
         <v>78</v>
       </c>
@@ -11921,15 +11970,16 @@
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>522</v>
       </c>
+      <c r="D118" s="3"/>
       <c r="F118" t="s">
         <v>78</v>
       </c>
@@ -11983,15 +12033,16 @@
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>525</v>
       </c>
+      <c r="D119" s="3"/>
       <c r="F119" t="s">
         <v>78</v>
       </c>
@@ -12045,15 +12096,16 @@
       </c>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>528</v>
       </c>
+      <c r="D120" s="3"/>
       <c r="F120" t="s">
         <v>78</v>
       </c>
@@ -12107,15 +12159,16 @@
       </c>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="D121" s="3"/>
       <c r="F121" t="s">
         <v>78</v>
       </c>
@@ -12169,15 +12222,16 @@
       </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>534</v>
       </c>
+      <c r="D122" s="3"/>
       <c r="F122" t="s">
         <v>78</v>
       </c>
@@ -12231,15 +12285,16 @@
       </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>537</v>
       </c>
+      <c r="D123" s="3"/>
       <c r="F123" t="s">
         <v>78</v>
       </c>
@@ -12292,76 +12347,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F124" t="s">
-        <v>78</v>
-      </c>
-      <c r="G124" t="s">
-        <v>33</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
+      <c r="F124" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
+      </c>
+      <c r="L124" s="3">
+        <v>0</v>
+      </c>
+      <c r="M124" s="3">
+        <v>0</v>
+      </c>
+      <c r="N124" s="3">
+        <v>0</v>
+      </c>
+      <c r="O124" s="3">
+        <v>0</v>
+      </c>
+      <c r="P124" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="3">
         <v>14</v>
       </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
-      <c r="V124" t="s">
-        <v>79</v>
-      </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-      <c r="X124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <v>100</v>
-      </c>
-      <c r="Z124">
-        <v>0</v>
-      </c>
-      <c r="AB124">
+      <c r="R124" s="3">
+        <v>0</v>
+      </c>
+      <c r="V124" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W124" s="3">
+        <v>0</v>
+      </c>
+      <c r="X124" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z124" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>543</v>
       </c>
       <c r="F125" t="s">
@@ -12417,13 +12472,13 @@
       </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>543</v>
       </c>
       <c r="F126" t="s">
@@ -12479,13 +12534,13 @@
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>546</v>
       </c>
       <c r="F127" t="s">
@@ -12541,13 +12596,13 @@
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="7" t="s">
         <v>549</v>
       </c>
       <c r="F128" t="s">
@@ -12603,13 +12658,13 @@
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>552</v>
       </c>
       <c r="F129" t="s">
@@ -12665,13 +12720,13 @@
       </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>555</v>
       </c>
       <c r="F130" t="s">
@@ -12727,13 +12782,13 @@
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>558</v>
       </c>
       <c r="F131" t="s">
@@ -12789,13 +12844,13 @@
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="7" t="s">
         <v>561</v>
       </c>
       <c r="F132" t="s">
@@ -12851,13 +12906,13 @@
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F133" t="s">
@@ -12913,13 +12968,13 @@
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="7" t="s">
         <v>567</v>
       </c>
       <c r="F134" t="s">
@@ -12975,13 +13030,13 @@
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="7" t="s">
         <v>570</v>
       </c>
       <c r="F135" t="s">
@@ -13037,13 +13092,13 @@
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="7" t="s">
         <v>573</v>
       </c>
       <c r="F136" t="s">
@@ -13099,13 +13154,13 @@
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="7" t="s">
         <v>576</v>
       </c>
       <c r="F137" t="s">
@@ -13161,13 +13216,13 @@
       </c>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="7" t="s">
         <v>579</v>
       </c>
       <c r="F138" t="s">
@@ -13223,13 +13278,13 @@
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="7" t="s">
         <v>582</v>
       </c>
       <c r="F139" t="s">
@@ -13285,13 +13340,13 @@
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
         <v>585</v>
       </c>
       <c r="F140" t="s">
@@ -13347,13 +13402,13 @@
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>588</v>
       </c>
       <c r="F141" t="s">
@@ -13409,13 +13464,13 @@
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="7" t="s">
         <v>591</v>
       </c>
       <c r="F142" t="s">
@@ -13471,13 +13526,13 @@
       </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="7" t="s">
         <v>594</v>
       </c>
       <c r="F143" t="s">
@@ -13533,13 +13588,13 @@
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="7" t="s">
         <v>597</v>
       </c>
       <c r="F144" t="s">
@@ -13595,13 +13650,13 @@
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="7" t="s">
         <v>600</v>
       </c>
       <c r="F145" t="s">
@@ -13657,13 +13712,13 @@
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="7" t="s">
         <v>603</v>
       </c>
       <c r="F146" t="s">
@@ -13719,13 +13774,13 @@
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="7" t="s">
         <v>606</v>
       </c>
       <c r="F147" t="s">
@@ -13781,13 +13836,13 @@
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>609</v>
       </c>
       <c r="F148" t="s">
@@ -13843,13 +13898,13 @@
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>612</v>
       </c>
       <c r="F149" t="s">
@@ -13905,13 +13960,13 @@
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="7" t="s">
         <v>615</v>
       </c>
       <c r="F150" t="s">
@@ -13967,13 +14022,13 @@
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="7" t="s">
         <v>618</v>
       </c>
       <c r="F151" t="s">
@@ -14029,13 +14084,13 @@
       </c>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>621</v>
       </c>
       <c r="F152" t="s">
@@ -14091,13 +14146,13 @@
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>624</v>
       </c>
       <c r="F153" t="s">
@@ -14153,13 +14208,13 @@
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>627</v>
       </c>
       <c r="F154" t="s">
@@ -14215,13 +14270,13 @@
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>630</v>
       </c>
       <c r="F155" t="s">
@@ -14277,13 +14332,13 @@
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="7" t="s">
         <v>633</v>
       </c>
       <c r="F156" t="s">
@@ -14339,13 +14394,13 @@
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>636</v>
       </c>
       <c r="F157" t="s">
@@ -14401,13 +14456,13 @@
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>639</v>
       </c>
       <c r="F158" t="s">
@@ -14463,13 +14518,13 @@
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>642</v>
       </c>
       <c r="F159" t="s">
@@ -14525,13 +14580,13 @@
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>645</v>
       </c>
       <c r="F160" t="s">
@@ -14587,13 +14642,13 @@
       </c>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>648</v>
       </c>
       <c r="F161" t="s">
@@ -14649,13 +14704,13 @@
       </c>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>651</v>
       </c>
       <c r="F162" t="s">
@@ -14711,13 +14766,13 @@
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>654</v>
       </c>
       <c r="F163" t="s">
@@ -14773,13 +14828,13 @@
       </c>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="7" t="s">
         <v>657</v>
       </c>
       <c r="F164" t="s">
@@ -14835,13 +14890,13 @@
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>660</v>
       </c>
       <c r="F165" t="s">
@@ -14897,13 +14952,13 @@
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>663</v>
       </c>
       <c r="F166" t="s">
@@ -14959,13 +15014,13 @@
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F167" t="s">
@@ -15021,13 +15076,13 @@
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>669</v>
       </c>
       <c r="F168" t="s">
@@ -15083,13 +15138,13 @@
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>672</v>
       </c>
       <c r="F169" t="s">
@@ -15145,13 +15200,13 @@
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="7" t="s">
         <v>675</v>
       </c>
       <c r="F170" t="s">
@@ -15207,13 +15262,13 @@
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>678</v>
       </c>
       <c r="F171" t="s">
@@ -15269,13 +15324,13 @@
       </c>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="7" t="s">
         <v>681</v>
       </c>
       <c r="F172" t="s">
@@ -15331,13 +15386,13 @@
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>684</v>
       </c>
       <c r="F173" t="s">
@@ -15393,13 +15448,13 @@
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="7" t="s">
         <v>687</v>
       </c>
       <c r="F174" t="s">
@@ -15455,13 +15510,13 @@
       </c>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="7" t="s">
         <v>690</v>
       </c>
       <c r="F175" t="s">
@@ -15517,13 +15572,13 @@
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="7" t="s">
         <v>693</v>
       </c>
       <c r="F176" t="s">
@@ -15579,13 +15634,13 @@
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="7" t="s">
         <v>696</v>
       </c>
       <c r="F177" t="s">
@@ -15641,13 +15696,13 @@
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="7" t="s">
         <v>699</v>
       </c>
       <c r="F178" t="s">
@@ -15703,13 +15758,13 @@
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="7" t="s">
         <v>702</v>
       </c>
       <c r="F179" t="s">
@@ -15765,13 +15820,13 @@
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="7" t="s">
         <v>705</v>
       </c>
       <c r="F180" t="s">
@@ -15827,13 +15882,13 @@
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="7" t="s">
         <v>708</v>
       </c>
       <c r="F181" t="s">
@@ -15889,13 +15944,13 @@
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="7" t="s">
         <v>711</v>
       </c>
       <c r="F182" t="s">
@@ -15951,13 +16006,13 @@
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>714</v>
       </c>
       <c r="F183" t="s">
@@ -16013,13 +16068,13 @@
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="7" t="s">
         <v>717</v>
       </c>
       <c r="F184" t="s">
@@ -16075,13 +16130,13 @@
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="7" t="s">
         <v>720</v>
       </c>
       <c r="F185" t="s">
@@ -16137,13 +16192,13 @@
       </c>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="7" t="s">
         <v>723</v>
       </c>
       <c r="F186" t="s">
@@ -16199,13 +16254,13 @@
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="7" t="s">
         <v>726</v>
       </c>
       <c r="F187" t="s">
@@ -16261,13 +16316,13 @@
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="7" t="s">
         <v>729</v>
       </c>
       <c r="F188" t="s">
@@ -16323,13 +16378,13 @@
       </c>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="7" t="s">
         <v>732</v>
       </c>
       <c r="F189" t="s">
@@ -16385,13 +16440,13 @@
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="7" t="s">
         <v>735</v>
       </c>
       <c r="F190" t="s">
@@ -16447,13 +16502,13 @@
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="7" t="s">
         <v>738</v>
       </c>
       <c r="F191" t="s">
@@ -16509,13 +16564,13 @@
       </c>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="7" t="s">
         <v>741</v>
       </c>
       <c r="F192" t="s">
@@ -16571,13 +16626,13 @@
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>744</v>
       </c>
       <c r="F193" t="s">
@@ -16633,13 +16688,13 @@
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>747</v>
       </c>
       <c r="F194" t="s">
@@ -16695,13 +16750,13 @@
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>750</v>
       </c>
       <c r="F195" t="s">
@@ -16757,13 +16812,13 @@
       </c>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="7" t="s">
         <v>753</v>
       </c>
       <c r="F196" t="s">
@@ -16819,13 +16874,13 @@
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="7" t="s">
         <v>756</v>
       </c>
       <c r="F197" t="s">
@@ -16881,13 +16936,13 @@
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="7" t="s">
         <v>759</v>
       </c>
       <c r="F198" t="s">
@@ -16943,13 +16998,13 @@
       </c>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="7" t="s">
         <v>762</v>
       </c>
       <c r="F199" t="s">
@@ -17005,13 +17060,13 @@
       </c>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="7" t="s">
         <v>765</v>
       </c>
       <c r="F200" t="s">
@@ -17067,13 +17122,13 @@
       </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="7" t="s">
         <v>768</v>
       </c>
       <c r="F201" t="s">
@@ -17129,13 +17184,13 @@
       </c>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="7" t="s">
         <v>771</v>
       </c>
       <c r="F202" t="s">
@@ -17191,13 +17246,13 @@
       </c>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="7" t="s">
         <v>774</v>
       </c>
       <c r="F203" t="s">
@@ -17253,13 +17308,13 @@
       </c>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="7" t="s">
         <v>777</v>
       </c>
       <c r="F204" t="s">
@@ -17315,13 +17370,13 @@
       </c>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="7" t="s">
         <v>780</v>
       </c>
       <c r="F205" t="s">
@@ -17377,13 +17432,13 @@
       </c>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="7" t="s">
         <v>783</v>
       </c>
       <c r="F206" t="s">
@@ -17439,13 +17494,13 @@
       </c>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>786</v>
       </c>
       <c r="F207" t="s">
@@ -17501,13 +17556,13 @@
       </c>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="7" t="s">
         <v>789</v>
       </c>
       <c r="F208" t="s">
@@ -17563,13 +17618,13 @@
       </c>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>792</v>
       </c>
       <c r="F209" t="s">
@@ -17625,13 +17680,13 @@
       </c>
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="7" t="s">
         <v>795</v>
       </c>
       <c r="F210" t="s">
@@ -17687,13 +17742,13 @@
       </c>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="7" t="s">
         <v>798</v>
       </c>
       <c r="F211" t="s">
@@ -17749,13 +17804,13 @@
       </c>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="7" t="s">
         <v>801</v>
       </c>
       <c r="F212" t="s">
@@ -17811,13 +17866,13 @@
       </c>
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>804</v>
       </c>
       <c r="F213" t="s">
@@ -17873,13 +17928,13 @@
       </c>
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="7" t="s">
         <v>807</v>
       </c>
       <c r="F214" t="s">
@@ -17935,13 +17990,13 @@
       </c>
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="7" t="s">
         <v>810</v>
       </c>
       <c r="F215" t="s">
@@ -17997,13 +18052,13 @@
       </c>
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="7" t="s">
         <v>813</v>
       </c>
       <c r="F216" t="s">
@@ -18059,13 +18114,13 @@
       </c>
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="7" t="s">
         <v>816</v>
       </c>
       <c r="F217" t="s">
@@ -18121,13 +18176,13 @@
       </c>
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="7" t="s">
         <v>819</v>
       </c>
       <c r="F218" t="s">
@@ -18183,13 +18238,13 @@
       </c>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="7" t="s">
         <v>822</v>
       </c>
       <c r="F219" t="s">
@@ -18245,13 +18300,13 @@
       </c>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="7" t="s">
         <v>825</v>
       </c>
       <c r="F220" t="s">
@@ -18307,13 +18362,13 @@
       </c>
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="7" t="s">
         <v>828</v>
       </c>
       <c r="F221" t="s">
@@ -18369,13 +18424,13 @@
       </c>
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="7" t="s">
         <v>831</v>
       </c>
       <c r="F222" t="s">
@@ -18431,13 +18486,13 @@
       </c>
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="7" t="s">
         <v>834</v>
       </c>
       <c r="F223" t="s">
@@ -18493,13 +18548,13 @@
       </c>
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="7" t="s">
         <v>837</v>
       </c>
       <c r="F224" t="s">
@@ -18555,13 +18610,13 @@
       </c>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="7" t="s">
         <v>840</v>
       </c>
       <c r="F225" t="s">
@@ -18617,13 +18672,13 @@
       </c>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="7" t="s">
         <v>843</v>
       </c>
       <c r="F226" t="s">
@@ -18679,13 +18734,13 @@
       </c>
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="7" t="s">
         <v>846</v>
       </c>
       <c r="F227" t="s">
@@ -18741,13 +18796,13 @@
       </c>
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
+      <c r="A228" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="7" t="s">
         <v>849</v>
       </c>
       <c r="F228" t="s">
@@ -18803,13 +18858,13 @@
       </c>
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="7" t="s">
         <v>852</v>
       </c>
       <c r="F229" t="s">
@@ -18865,13 +18920,13 @@
       </c>
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="7" t="s">
         <v>855</v>
       </c>
       <c r="F230" t="s">
@@ -18927,13 +18982,13 @@
       </c>
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="7" t="s">
         <v>858</v>
       </c>
       <c r="F231" t="s">
@@ -18989,13 +19044,13 @@
       </c>
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="7" t="s">
         <v>861</v>
       </c>
       <c r="F232" t="s">
@@ -19051,13 +19106,13 @@
       </c>
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="7" t="s">
         <v>864</v>
       </c>
       <c r="F233" t="s">
@@ -19113,13 +19168,13 @@
       </c>
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="7" t="s">
         <v>867</v>
       </c>
       <c r="F234" t="s">
@@ -19175,13 +19230,13 @@
       </c>
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="7" t="s">
         <v>870</v>
       </c>
       <c r="F235" t="s">
@@ -19237,13 +19292,13 @@
       </c>
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="7" t="s">
         <v>873</v>
       </c>
       <c r="F236" t="s">
@@ -19299,13 +19354,13 @@
       </c>
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" s="7" t="s">
         <v>876</v>
       </c>
       <c r="F237" t="s">
@@ -19361,13 +19416,13 @@
       </c>
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="7" t="s">
         <v>879</v>
       </c>
       <c r="F238" t="s">
@@ -19423,13 +19478,13 @@
       </c>
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="C239" s="7" t="s">
         <v>882</v>
       </c>
       <c r="F239" t="s">
@@ -19485,13 +19540,13 @@
       </c>
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
+      <c r="A240" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="C240" s="7" t="s">
         <v>885</v>
       </c>
       <c r="F240" t="s">
@@ -19547,13 +19602,13 @@
       </c>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="C241" s="7" t="s">
         <v>888</v>
       </c>
       <c r="F241" t="s">
@@ -19609,13 +19664,13 @@
       </c>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="7" t="s">
         <v>891</v>
       </c>
       <c r="F242" t="s">
@@ -19671,13 +19726,13 @@
       </c>
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A243" s="8" t="s">
+      <c r="A243" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="7" t="s">
         <v>894</v>
       </c>
       <c r="F243" t="s">
@@ -19733,13 +19788,13 @@
       </c>
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="7" t="s">
         <v>897</v>
       </c>
       <c r="F244" t="s">
@@ -19795,13 +19850,13 @@
       </c>
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="7" t="s">
         <v>900</v>
       </c>
       <c r="F245" t="s">
@@ -19857,13 +19912,13 @@
       </c>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="7" t="s">
         <v>903</v>
       </c>
       <c r="F246" t="s">
@@ -19919,13 +19974,13 @@
       </c>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="C247" s="8" t="s">
+      <c r="C247" s="7" t="s">
         <v>906</v>
       </c>
       <c r="F247" t="s">
@@ -19981,13 +20036,13 @@
       </c>
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A248" s="8" t="s">
+      <c r="A248" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="7" t="s">
         <v>909</v>
       </c>
       <c r="F248" t="s">
@@ -20043,13 +20098,13 @@
       </c>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="7" t="s">
         <v>912</v>
       </c>
       <c r="F249" t="s">
@@ -20105,13 +20160,13 @@
       </c>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="7" t="s">
         <v>915</v>
       </c>
       <c r="F250" t="s">
@@ -20167,13 +20222,13 @@
       </c>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="7" t="s">
         <v>918</v>
       </c>
       <c r="F251" t="s">
@@ -20229,13 +20284,13 @@
       </c>
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="C252" s="8" t="s">
+      <c r="C252" s="7" t="s">
         <v>921</v>
       </c>
       <c r="F252" t="s">
@@ -20291,13 +20346,13 @@
       </c>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="7" t="s">
         <v>924</v>
       </c>
       <c r="F253" t="s">
@@ -20353,13 +20408,13 @@
       </c>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="7" t="s">
         <v>927</v>
       </c>
       <c r="F254" t="s">
@@ -20415,13 +20470,13 @@
       </c>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A255" s="8" t="s">
+      <c r="A255" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="7" t="s">
         <v>930</v>
       </c>
       <c r="F255" t="s">
@@ -20477,13 +20532,13 @@
       </c>
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="7" t="s">
         <v>933</v>
       </c>
       <c r="F256" t="s">
@@ -20539,13 +20594,13 @@
       </c>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="C257" s="8" t="s">
+      <c r="C257" s="7" t="s">
         <v>936</v>
       </c>
       <c r="F257" t="s">
@@ -24148,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="O312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P312">
         <v>0</v>
@@ -24278,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="O314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P314">
         <v>0</v>
@@ -24473,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="O317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P317">
         <v>0</v>
@@ -27755,13 +27810,16 @@
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>376</v>
+        <v>939</v>
       </c>
       <c r="B368" t="s">
-        <v>377</v>
+        <v>542</v>
       </c>
       <c r="C368" t="s">
-        <v>378</v>
+        <v>940</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F368" t="s">
         <v>78</v>
@@ -27817,13 +27875,16 @@
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>379</v>
+        <v>941</v>
       </c>
       <c r="B369" t="s">
-        <v>380</v>
+        <v>545</v>
       </c>
       <c r="C369" t="s">
-        <v>381</v>
+        <v>942</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F369" t="s">
         <v>78</v>
@@ -27879,13 +27940,16 @@
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>382</v>
+        <v>943</v>
       </c>
       <c r="B370" t="s">
-        <v>383</v>
+        <v>548</v>
       </c>
       <c r="C370" t="s">
-        <v>384</v>
+        <v>944</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F370" t="s">
         <v>78</v>
@@ -27941,13 +28005,16 @@
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>385</v>
+        <v>945</v>
       </c>
       <c r="B371" t="s">
-        <v>386</v>
+        <v>551</v>
       </c>
       <c r="C371" t="s">
-        <v>387</v>
+        <v>946</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F371" t="s">
         <v>78</v>
@@ -28003,13 +28070,16 @@
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>388</v>
+        <v>947</v>
       </c>
       <c r="B372" t="s">
-        <v>389</v>
+        <v>554</v>
       </c>
       <c r="C372" t="s">
-        <v>390</v>
+        <v>948</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F372" t="s">
         <v>78</v>
@@ -28065,13 +28135,16 @@
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>391</v>
+        <v>949</v>
       </c>
       <c r="B373" t="s">
-        <v>392</v>
+        <v>557</v>
       </c>
       <c r="C373" t="s">
-        <v>393</v>
+        <v>950</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F373" t="s">
         <v>78</v>
@@ -28127,13 +28200,16 @@
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>394</v>
+        <v>951</v>
       </c>
       <c r="B374" t="s">
-        <v>395</v>
+        <v>560</v>
       </c>
       <c r="C374" t="s">
-        <v>396</v>
+        <v>952</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F374" t="s">
         <v>78</v>
@@ -28189,13 +28265,16 @@
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>397</v>
+        <v>953</v>
       </c>
       <c r="B375" t="s">
-        <v>398</v>
+        <v>563</v>
       </c>
       <c r="C375" t="s">
-        <v>399</v>
+        <v>954</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F375" t="s">
         <v>78</v>
@@ -28251,13 +28330,16 @@
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>400</v>
+        <v>955</v>
       </c>
       <c r="B376" t="s">
-        <v>401</v>
+        <v>566</v>
       </c>
       <c r="C376" t="s">
-        <v>402</v>
+        <v>956</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F376" t="s">
         <v>78</v>
@@ -28313,13 +28395,16 @@
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>403</v>
+        <v>957</v>
       </c>
       <c r="B377" t="s">
-        <v>404</v>
+        <v>569</v>
       </c>
       <c r="C377" t="s">
-        <v>405</v>
+        <v>958</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F377" t="s">
         <v>78</v>
@@ -28375,13 +28460,16 @@
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>406</v>
+        <v>959</v>
       </c>
       <c r="B378" t="s">
-        <v>407</v>
+        <v>572</v>
       </c>
       <c r="C378" t="s">
-        <v>408</v>
+        <v>960</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F378" t="s">
         <v>78</v>
@@ -28437,13 +28525,16 @@
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>409</v>
+        <v>961</v>
       </c>
       <c r="B379" t="s">
-        <v>410</v>
+        <v>575</v>
       </c>
       <c r="C379" t="s">
-        <v>411</v>
+        <v>962</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F379" t="s">
         <v>78</v>
@@ -28499,13 +28590,16 @@
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>412</v>
+        <v>963</v>
       </c>
       <c r="B380" t="s">
-        <v>413</v>
+        <v>578</v>
       </c>
       <c r="C380" t="s">
-        <v>414</v>
+        <v>964</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F380" t="s">
         <v>78</v>
@@ -28561,13 +28655,16 @@
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>415</v>
+        <v>965</v>
       </c>
       <c r="B381" t="s">
-        <v>416</v>
+        <v>581</v>
       </c>
       <c r="C381" t="s">
-        <v>417</v>
+        <v>966</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F381" t="s">
         <v>78</v>
@@ -28623,13 +28720,16 @@
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>418</v>
+        <v>967</v>
       </c>
       <c r="B382" t="s">
-        <v>419</v>
+        <v>584</v>
       </c>
       <c r="C382" t="s">
-        <v>420</v>
+        <v>968</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F382" t="s">
         <v>78</v>
@@ -28685,13 +28785,16 @@
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>421</v>
+        <v>969</v>
       </c>
       <c r="B383" t="s">
-        <v>422</v>
+        <v>587</v>
       </c>
       <c r="C383" t="s">
-        <v>423</v>
+        <v>970</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F383" t="s">
         <v>78</v>
@@ -28747,13 +28850,16 @@
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>424</v>
+        <v>971</v>
       </c>
       <c r="B384" t="s">
-        <v>425</v>
+        <v>590</v>
       </c>
       <c r="C384" t="s">
-        <v>426</v>
+        <v>972</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F384" t="s">
         <v>78</v>
@@ -28809,13 +28915,16 @@
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>427</v>
+        <v>973</v>
       </c>
       <c r="B385" t="s">
-        <v>428</v>
+        <v>593</v>
       </c>
       <c r="C385" t="s">
-        <v>429</v>
+        <v>974</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F385" t="s">
         <v>78</v>
@@ -28871,13 +28980,16 @@
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>430</v>
+        <v>975</v>
       </c>
       <c r="B386" t="s">
-        <v>431</v>
+        <v>596</v>
       </c>
       <c r="C386" t="s">
-        <v>432</v>
+        <v>976</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F386" t="s">
         <v>78</v>
@@ -28933,13 +29045,16 @@
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>433</v>
+        <v>977</v>
       </c>
       <c r="B387" t="s">
-        <v>434</v>
+        <v>599</v>
       </c>
       <c r="C387" t="s">
-        <v>435</v>
+        <v>978</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F387" t="s">
         <v>78</v>
@@ -28995,13 +29110,16 @@
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>436</v>
+        <v>979</v>
       </c>
       <c r="B388" t="s">
-        <v>437</v>
+        <v>602</v>
       </c>
       <c r="C388" t="s">
-        <v>438</v>
+        <v>980</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F388" t="s">
         <v>78</v>
@@ -29057,13 +29175,16 @@
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>439</v>
+        <v>981</v>
       </c>
       <c r="B389" t="s">
-        <v>440</v>
+        <v>605</v>
       </c>
       <c r="C389" t="s">
-        <v>441</v>
+        <v>982</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F389" t="s">
         <v>78</v>
@@ -29119,13 +29240,16 @@
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>442</v>
+        <v>983</v>
       </c>
       <c r="B390" t="s">
-        <v>443</v>
+        <v>608</v>
       </c>
       <c r="C390" t="s">
-        <v>444</v>
+        <v>984</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F390" t="s">
         <v>78</v>
@@ -29181,13 +29305,16 @@
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>445</v>
+        <v>985</v>
       </c>
       <c r="B391" t="s">
-        <v>446</v>
+        <v>611</v>
       </c>
       <c r="C391" t="s">
-        <v>447</v>
+        <v>986</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F391" t="s">
         <v>78</v>
@@ -29243,13 +29370,16 @@
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>448</v>
+        <v>987</v>
       </c>
       <c r="B392" t="s">
-        <v>449</v>
+        <v>614</v>
       </c>
       <c r="C392" t="s">
-        <v>450</v>
+        <v>988</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F392" t="s">
         <v>78</v>
@@ -29305,13 +29435,16 @@
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>451</v>
+        <v>989</v>
       </c>
       <c r="B393" t="s">
-        <v>452</v>
+        <v>617</v>
       </c>
       <c r="C393" t="s">
-        <v>453</v>
+        <v>990</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F393" t="s">
         <v>78</v>
@@ -29367,13 +29500,16 @@
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>454</v>
+        <v>991</v>
       </c>
       <c r="B394" t="s">
-        <v>455</v>
+        <v>620</v>
       </c>
       <c r="C394" t="s">
-        <v>456</v>
+        <v>992</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F394" t="s">
         <v>78</v>
@@ -29429,13 +29565,16 @@
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>457</v>
+        <v>993</v>
       </c>
       <c r="B395" t="s">
-        <v>458</v>
+        <v>623</v>
       </c>
       <c r="C395" t="s">
-        <v>459</v>
+        <v>994</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F395" t="s">
         <v>78</v>
@@ -29491,13 +29630,16 @@
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>460</v>
+        <v>995</v>
       </c>
       <c r="B396" t="s">
-        <v>461</v>
+        <v>626</v>
       </c>
       <c r="C396" t="s">
-        <v>462</v>
+        <v>996</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F396" t="s">
         <v>78</v>
@@ -29553,13 +29695,16 @@
     </row>
     <row r="397" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>463</v>
+        <v>997</v>
       </c>
       <c r="B397" t="s">
-        <v>464</v>
+        <v>629</v>
       </c>
       <c r="C397" t="s">
-        <v>465</v>
+        <v>998</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F397" t="s">
         <v>78</v>
@@ -29615,13 +29760,16 @@
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>466</v>
+        <v>999</v>
       </c>
       <c r="B398" t="s">
-        <v>467</v>
+        <v>632</v>
       </c>
       <c r="C398" t="s">
-        <v>468</v>
+        <v>1000</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F398" t="s">
         <v>78</v>
@@ -29677,13 +29825,16 @@
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>469</v>
+        <v>1001</v>
       </c>
       <c r="B399" t="s">
-        <v>470</v>
+        <v>635</v>
       </c>
       <c r="C399" t="s">
-        <v>471</v>
+        <v>1002</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F399" t="s">
         <v>78</v>
@@ -29739,13 +29890,16 @@
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>472</v>
+        <v>1003</v>
       </c>
       <c r="B400" t="s">
-        <v>473</v>
+        <v>638</v>
       </c>
       <c r="C400" t="s">
-        <v>474</v>
+        <v>1004</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F400" t="s">
         <v>78</v>
@@ -29801,13 +29955,16 @@
     </row>
     <row r="401" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>475</v>
+        <v>1005</v>
       </c>
       <c r="B401" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="C401" t="s">
-        <v>477</v>
+        <v>1006</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F401" t="s">
         <v>78</v>
@@ -29863,13 +30020,16 @@
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>478</v>
+        <v>1007</v>
       </c>
       <c r="B402" t="s">
-        <v>479</v>
+        <v>644</v>
       </c>
       <c r="C402" t="s">
-        <v>480</v>
+        <v>1008</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F402" t="s">
         <v>78</v>
@@ -29925,13 +30085,16 @@
     </row>
     <row r="403" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>481</v>
+        <v>1009</v>
       </c>
       <c r="B403" t="s">
-        <v>482</v>
+        <v>647</v>
       </c>
       <c r="C403" t="s">
-        <v>483</v>
+        <v>1010</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F403" t="s">
         <v>78</v>
@@ -29987,13 +30150,16 @@
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>484</v>
+        <v>1011</v>
       </c>
       <c r="B404" t="s">
-        <v>485</v>
+        <v>650</v>
       </c>
       <c r="C404" t="s">
-        <v>486</v>
+        <v>1012</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F404" t="s">
         <v>78</v>
@@ -30049,13 +30215,16 @@
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>487</v>
+        <v>1013</v>
       </c>
       <c r="B405" t="s">
-        <v>488</v>
+        <v>653</v>
       </c>
       <c r="C405" t="s">
-        <v>489</v>
+        <v>1014</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F405" t="s">
         <v>78</v>
@@ -30111,13 +30280,16 @@
     </row>
     <row r="406" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>490</v>
+        <v>1015</v>
       </c>
       <c r="B406" t="s">
-        <v>491</v>
+        <v>656</v>
       </c>
       <c r="C406" t="s">
-        <v>492</v>
+        <v>1016</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F406" t="s">
         <v>78</v>
@@ -30173,13 +30345,16 @@
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>493</v>
+        <v>1017</v>
       </c>
       <c r="B407" t="s">
-        <v>494</v>
+        <v>659</v>
       </c>
       <c r="C407" t="s">
-        <v>495</v>
+        <v>1018</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F407" t="s">
         <v>78</v>
@@ -30235,13 +30410,16 @@
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>496</v>
+        <v>1019</v>
       </c>
       <c r="B408" t="s">
-        <v>497</v>
+        <v>662</v>
       </c>
       <c r="C408" t="s">
-        <v>498</v>
+        <v>1020</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F408" t="s">
         <v>78</v>
@@ -30297,13 +30475,16 @@
     </row>
     <row r="409" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>499</v>
+        <v>1021</v>
       </c>
       <c r="B409" t="s">
-        <v>500</v>
+        <v>665</v>
       </c>
       <c r="C409" t="s">
-        <v>501</v>
+        <v>1022</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F409" t="s">
         <v>78</v>
@@ -30359,13 +30540,16 @@
     </row>
     <row r="410" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>502</v>
+        <v>1023</v>
       </c>
       <c r="B410" t="s">
-        <v>503</v>
+        <v>668</v>
       </c>
       <c r="C410" t="s">
-        <v>504</v>
+        <v>1024</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F410" t="s">
         <v>78</v>
@@ -30421,13 +30605,16 @@
     </row>
     <row r="411" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>505</v>
+        <v>1025</v>
       </c>
       <c r="B411" t="s">
-        <v>506</v>
+        <v>671</v>
       </c>
       <c r="C411" t="s">
-        <v>507</v>
+        <v>1026</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F411" t="s">
         <v>78</v>
@@ -30483,13 +30670,16 @@
     </row>
     <row r="412" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>508</v>
+        <v>1027</v>
       </c>
       <c r="B412" t="s">
-        <v>509</v>
+        <v>674</v>
       </c>
       <c r="C412" t="s">
-        <v>510</v>
+        <v>1028</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F412" t="s">
         <v>78</v>
@@ -30545,13 +30735,16 @@
     </row>
     <row r="413" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>511</v>
+        <v>1029</v>
       </c>
       <c r="B413" t="s">
-        <v>512</v>
+        <v>677</v>
       </c>
       <c r="C413" t="s">
-        <v>513</v>
+        <v>1030</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F413" t="s">
         <v>78</v>
@@ -30607,13 +30800,16 @@
     </row>
     <row r="414" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>514</v>
+        <v>1031</v>
       </c>
       <c r="B414" t="s">
-        <v>515</v>
+        <v>680</v>
       </c>
       <c r="C414" t="s">
-        <v>516</v>
+        <v>1032</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F414" t="s">
         <v>78</v>
@@ -30669,13 +30865,16 @@
     </row>
     <row r="415" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>517</v>
+        <v>1033</v>
       </c>
       <c r="B415" t="s">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="C415" t="s">
-        <v>519</v>
+        <v>1034</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F415" t="s">
         <v>78</v>
@@ -30731,13 +30930,16 @@
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>520</v>
+        <v>1035</v>
       </c>
       <c r="B416" t="s">
-        <v>521</v>
+        <v>686</v>
       </c>
       <c r="C416" t="s">
-        <v>522</v>
+        <v>1036</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F416" t="s">
         <v>78</v>
@@ -30793,13 +30995,16 @@
     </row>
     <row r="417" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>523</v>
+        <v>1037</v>
       </c>
       <c r="B417" t="s">
-        <v>524</v>
+        <v>689</v>
       </c>
       <c r="C417" t="s">
-        <v>525</v>
+        <v>1038</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F417" t="s">
         <v>78</v>
@@ -30855,13 +31060,16 @@
     </row>
     <row r="418" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>526</v>
+        <v>1039</v>
       </c>
       <c r="B418" t="s">
-        <v>527</v>
+        <v>692</v>
       </c>
       <c r="C418" t="s">
-        <v>528</v>
+        <v>1040</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F418" t="s">
         <v>78</v>
@@ -30917,13 +31125,16 @@
     </row>
     <row r="419" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>529</v>
+        <v>1041</v>
       </c>
       <c r="B419" t="s">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="C419" t="s">
-        <v>531</v>
+        <v>1042</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F419" t="s">
         <v>78</v>
@@ -30979,13 +31190,16 @@
     </row>
     <row r="420" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>532</v>
+        <v>1043</v>
       </c>
       <c r="B420" t="s">
-        <v>533</v>
+        <v>698</v>
       </c>
       <c r="C420" t="s">
-        <v>534</v>
+        <v>1044</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F420" t="s">
         <v>78</v>
@@ -31041,13 +31255,16 @@
     </row>
     <row r="421" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>535</v>
+        <v>1045</v>
       </c>
       <c r="B421" t="s">
-        <v>536</v>
+        <v>701</v>
       </c>
       <c r="C421" t="s">
-        <v>537</v>
+        <v>1046</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F421" t="s">
         <v>78</v>
@@ -31103,13 +31320,16 @@
     </row>
     <row r="422" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>538</v>
+        <v>1047</v>
       </c>
       <c r="B422" t="s">
-        <v>539</v>
+        <v>704</v>
       </c>
       <c r="C422" t="s">
-        <v>540</v>
+        <v>1048</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F422" t="s">
         <v>78</v>
@@ -31165,13 +31385,13 @@
     </row>
     <row r="423" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="B423" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="C423" t="s">
-        <v>940</v>
+        <v>1050</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>103</v>
@@ -31230,13 +31450,13 @@
     </row>
     <row r="424" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>941</v>
+        <v>1051</v>
       </c>
       <c r="B424" t="s">
-        <v>545</v>
+        <v>710</v>
       </c>
       <c r="C424" t="s">
-        <v>942</v>
+        <v>1052</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>103</v>
@@ -31295,13 +31515,13 @@
     </row>
     <row r="425" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>943</v>
+        <v>1053</v>
       </c>
       <c r="B425" t="s">
-        <v>548</v>
+        <v>713</v>
       </c>
       <c r="C425" t="s">
-        <v>944</v>
+        <v>1054</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>103</v>
@@ -31360,13 +31580,13 @@
     </row>
     <row r="426" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>945</v>
+        <v>1055</v>
       </c>
       <c r="B426" t="s">
-        <v>551</v>
+        <v>716</v>
       </c>
       <c r="C426" t="s">
-        <v>946</v>
+        <v>1056</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>103</v>
@@ -31425,13 +31645,13 @@
     </row>
     <row r="427" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>947</v>
+        <v>1057</v>
       </c>
       <c r="B427" t="s">
-        <v>554</v>
+        <v>719</v>
       </c>
       <c r="C427" t="s">
-        <v>948</v>
+        <v>1058</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>103</v>
@@ -31490,13 +31710,13 @@
     </row>
     <row r="428" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>949</v>
+        <v>1059</v>
       </c>
       <c r="B428" t="s">
-        <v>557</v>
+        <v>722</v>
       </c>
       <c r="C428" t="s">
-        <v>950</v>
+        <v>1060</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>103</v>
@@ -31555,13 +31775,13 @@
     </row>
     <row r="429" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>951</v>
+        <v>1061</v>
       </c>
       <c r="B429" t="s">
-        <v>560</v>
+        <v>725</v>
       </c>
       <c r="C429" t="s">
-        <v>952</v>
+        <v>1062</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>103</v>
@@ -31620,13 +31840,13 @@
     </row>
     <row r="430" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>953</v>
+        <v>1063</v>
       </c>
       <c r="B430" t="s">
-        <v>563</v>
+        <v>728</v>
       </c>
       <c r="C430" t="s">
-        <v>954</v>
+        <v>1064</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>103</v>
@@ -31685,13 +31905,13 @@
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="B431" t="s">
-        <v>566</v>
+        <v>731</v>
       </c>
       <c r="C431" t="s">
-        <v>956</v>
+        <v>1066</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>103</v>
@@ -31750,13 +31970,13 @@
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>957</v>
+        <v>1067</v>
       </c>
       <c r="B432" t="s">
-        <v>569</v>
+        <v>734</v>
       </c>
       <c r="C432" t="s">
-        <v>958</v>
+        <v>1068</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>103</v>
@@ -31815,13 +32035,13 @@
     </row>
     <row r="433" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>959</v>
+        <v>1069</v>
       </c>
       <c r="B433" t="s">
-        <v>572</v>
+        <v>737</v>
       </c>
       <c r="C433" t="s">
-        <v>960</v>
+        <v>1070</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>103</v>
@@ -31880,13 +32100,13 @@
     </row>
     <row r="434" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>961</v>
+        <v>1071</v>
       </c>
       <c r="B434" t="s">
-        <v>575</v>
+        <v>740</v>
       </c>
       <c r="C434" t="s">
-        <v>962</v>
+        <v>1072</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>103</v>
@@ -31945,13 +32165,13 @@
     </row>
     <row r="435" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>963</v>
+        <v>1073</v>
       </c>
       <c r="B435" t="s">
-        <v>578</v>
+        <v>743</v>
       </c>
       <c r="C435" t="s">
-        <v>964</v>
+        <v>1074</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>103</v>
@@ -32010,13 +32230,13 @@
     </row>
     <row r="436" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>965</v>
+        <v>1075</v>
       </c>
       <c r="B436" t="s">
-        <v>581</v>
+        <v>746</v>
       </c>
       <c r="C436" t="s">
-        <v>966</v>
+        <v>1076</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>103</v>
@@ -32075,13 +32295,13 @@
     </row>
     <row r="437" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>967</v>
+        <v>1077</v>
       </c>
       <c r="B437" t="s">
-        <v>584</v>
+        <v>749</v>
       </c>
       <c r="C437" t="s">
-        <v>968</v>
+        <v>1078</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>103</v>
@@ -32140,13 +32360,13 @@
     </row>
     <row r="438" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>969</v>
+        <v>1079</v>
       </c>
       <c r="B438" t="s">
-        <v>587</v>
+        <v>752</v>
       </c>
       <c r="C438" t="s">
-        <v>970</v>
+        <v>1080</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>103</v>
@@ -32205,13 +32425,13 @@
     </row>
     <row r="439" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>971</v>
+        <v>1081</v>
       </c>
       <c r="B439" t="s">
-        <v>590</v>
+        <v>755</v>
       </c>
       <c r="C439" t="s">
-        <v>972</v>
+        <v>1082</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>103</v>
@@ -32270,13 +32490,13 @@
     </row>
     <row r="440" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>973</v>
+        <v>1083</v>
       </c>
       <c r="B440" t="s">
-        <v>593</v>
+        <v>758</v>
       </c>
       <c r="C440" t="s">
-        <v>974</v>
+        <v>1084</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>103</v>
@@ -32335,13 +32555,13 @@
     </row>
     <row r="441" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>975</v>
+        <v>1085</v>
       </c>
       <c r="B441" t="s">
-        <v>596</v>
+        <v>761</v>
       </c>
       <c r="C441" t="s">
-        <v>976</v>
+        <v>1086</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>103</v>
@@ -32400,13 +32620,13 @@
     </row>
     <row r="442" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>977</v>
+        <v>1087</v>
       </c>
       <c r="B442" t="s">
-        <v>599</v>
+        <v>764</v>
       </c>
       <c r="C442" t="s">
-        <v>978</v>
+        <v>1088</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>103</v>
@@ -32465,13 +32685,13 @@
     </row>
     <row r="443" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>979</v>
+        <v>1089</v>
       </c>
       <c r="B443" t="s">
-        <v>602</v>
+        <v>767</v>
       </c>
       <c r="C443" t="s">
-        <v>980</v>
+        <v>1090</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>103</v>
@@ -32530,13 +32750,13 @@
     </row>
     <row r="444" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>981</v>
+        <v>1091</v>
       </c>
       <c r="B444" t="s">
-        <v>605</v>
+        <v>770</v>
       </c>
       <c r="C444" t="s">
-        <v>982</v>
+        <v>1092</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>103</v>
@@ -32595,13 +32815,13 @@
     </row>
     <row r="445" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>983</v>
+        <v>1093</v>
       </c>
       <c r="B445" t="s">
-        <v>608</v>
+        <v>773</v>
       </c>
       <c r="C445" t="s">
-        <v>984</v>
+        <v>1094</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>103</v>
@@ -32660,13 +32880,13 @@
     </row>
     <row r="446" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>985</v>
+        <v>1095</v>
       </c>
       <c r="B446" t="s">
-        <v>611</v>
+        <v>776</v>
       </c>
       <c r="C446" t="s">
-        <v>986</v>
+        <v>1096</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>103</v>
@@ -32725,13 +32945,13 @@
     </row>
     <row r="447" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>987</v>
+        <v>1097</v>
       </c>
       <c r="B447" t="s">
-        <v>614</v>
+        <v>779</v>
       </c>
       <c r="C447" t="s">
-        <v>988</v>
+        <v>1098</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>103</v>
@@ -32790,13 +33010,13 @@
     </row>
     <row r="448" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="B448" t="s">
-        <v>617</v>
+        <v>782</v>
       </c>
       <c r="C448" t="s">
-        <v>990</v>
+        <v>1100</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>103</v>
@@ -32855,13 +33075,13 @@
     </row>
     <row r="449" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>991</v>
+        <v>1101</v>
       </c>
       <c r="B449" t="s">
-        <v>620</v>
+        <v>785</v>
       </c>
       <c r="C449" t="s">
-        <v>992</v>
+        <v>1102</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>103</v>
@@ -32920,13 +33140,13 @@
     </row>
     <row r="450" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>993</v>
+        <v>1103</v>
       </c>
       <c r="B450" t="s">
-        <v>623</v>
+        <v>788</v>
       </c>
       <c r="C450" t="s">
-        <v>994</v>
+        <v>1104</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>103</v>
@@ -32985,13 +33205,13 @@
     </row>
     <row r="451" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>995</v>
+        <v>1105</v>
       </c>
       <c r="B451" t="s">
-        <v>626</v>
+        <v>791</v>
       </c>
       <c r="C451" t="s">
-        <v>996</v>
+        <v>1106</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>103</v>
@@ -33050,13 +33270,13 @@
     </row>
     <row r="452" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>997</v>
+        <v>1107</v>
       </c>
       <c r="B452" t="s">
-        <v>629</v>
+        <v>794</v>
       </c>
       <c r="C452" t="s">
-        <v>998</v>
+        <v>1108</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>103</v>
@@ -33115,13 +33335,13 @@
     </row>
     <row r="453" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>999</v>
+        <v>1109</v>
       </c>
       <c r="B453" t="s">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="C453" t="s">
-        <v>1000</v>
+        <v>1110</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>103</v>
@@ -33180,13 +33400,13 @@
     </row>
     <row r="454" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>1001</v>
+        <v>1111</v>
       </c>
       <c r="B454" t="s">
-        <v>635</v>
+        <v>800</v>
       </c>
       <c r="C454" t="s">
-        <v>1002</v>
+        <v>1112</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>103</v>
@@ -33245,13 +33465,13 @@
     </row>
     <row r="455" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1003</v>
+        <v>1113</v>
       </c>
       <c r="B455" t="s">
-        <v>638</v>
+        <v>803</v>
       </c>
       <c r="C455" t="s">
-        <v>1004</v>
+        <v>1114</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>103</v>
@@ -33310,13 +33530,13 @@
     </row>
     <row r="456" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>1005</v>
+        <v>1115</v>
       </c>
       <c r="B456" t="s">
-        <v>641</v>
+        <v>806</v>
       </c>
       <c r="C456" t="s">
-        <v>1006</v>
+        <v>1116</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>103</v>
@@ -33375,13 +33595,13 @@
     </row>
     <row r="457" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1007</v>
+        <v>1117</v>
       </c>
       <c r="B457" t="s">
-        <v>644</v>
+        <v>809</v>
       </c>
       <c r="C457" t="s">
-        <v>1008</v>
+        <v>1118</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>103</v>
@@ -33440,13 +33660,13 @@
     </row>
     <row r="458" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1009</v>
+        <v>1119</v>
       </c>
       <c r="B458" t="s">
-        <v>647</v>
+        <v>812</v>
       </c>
       <c r="C458" t="s">
-        <v>1010</v>
+        <v>1120</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>103</v>
@@ -33505,13 +33725,13 @@
     </row>
     <row r="459" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>1011</v>
+        <v>1121</v>
       </c>
       <c r="B459" t="s">
-        <v>650</v>
+        <v>815</v>
       </c>
       <c r="C459" t="s">
-        <v>1012</v>
+        <v>1122</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>103</v>
@@ -33570,13 +33790,13 @@
     </row>
     <row r="460" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1013</v>
+        <v>1123</v>
       </c>
       <c r="B460" t="s">
-        <v>653</v>
+        <v>818</v>
       </c>
       <c r="C460" t="s">
-        <v>1014</v>
+        <v>1124</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>103</v>
@@ -33635,13 +33855,13 @@
     </row>
     <row r="461" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1015</v>
+        <v>1125</v>
       </c>
       <c r="B461" t="s">
-        <v>656</v>
+        <v>821</v>
       </c>
       <c r="C461" t="s">
-        <v>1016</v>
+        <v>1126</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>103</v>
@@ -33700,13 +33920,13 @@
     </row>
     <row r="462" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>1017</v>
+        <v>1127</v>
       </c>
       <c r="B462" t="s">
-        <v>659</v>
+        <v>824</v>
       </c>
       <c r="C462" t="s">
-        <v>1018</v>
+        <v>1128</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>103</v>
@@ -33765,13 +33985,13 @@
     </row>
     <row r="463" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>1019</v>
+        <v>1129</v>
       </c>
       <c r="B463" t="s">
-        <v>662</v>
+        <v>827</v>
       </c>
       <c r="C463" t="s">
-        <v>1020</v>
+        <v>1130</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>103</v>
@@ -33830,13 +34050,13 @@
     </row>
     <row r="464" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>1021</v>
+        <v>1131</v>
       </c>
       <c r="B464" t="s">
-        <v>665</v>
+        <v>830</v>
       </c>
       <c r="C464" t="s">
-        <v>1022</v>
+        <v>1132</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>103</v>
@@ -33895,13 +34115,13 @@
     </row>
     <row r="465" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1023</v>
+        <v>1133</v>
       </c>
       <c r="B465" t="s">
-        <v>668</v>
+        <v>833</v>
       </c>
       <c r="C465" t="s">
-        <v>1024</v>
+        <v>1134</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>103</v>
@@ -33960,13 +34180,13 @@
     </row>
     <row r="466" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>1025</v>
+        <v>1135</v>
       </c>
       <c r="B466" t="s">
-        <v>671</v>
+        <v>836</v>
       </c>
       <c r="C466" t="s">
-        <v>1026</v>
+        <v>1136</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>103</v>
@@ -34025,13 +34245,13 @@
     </row>
     <row r="467" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>1027</v>
+        <v>1137</v>
       </c>
       <c r="B467" t="s">
-        <v>674</v>
+        <v>839</v>
       </c>
       <c r="C467" t="s">
-        <v>1028</v>
+        <v>1138</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>103</v>
@@ -34090,13 +34310,13 @@
     </row>
     <row r="468" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1029</v>
+        <v>1139</v>
       </c>
       <c r="B468" t="s">
-        <v>677</v>
+        <v>842</v>
       </c>
       <c r="C468" t="s">
-        <v>1030</v>
+        <v>1140</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>103</v>
@@ -34155,13 +34375,13 @@
     </row>
     <row r="469" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1031</v>
+        <v>1141</v>
       </c>
       <c r="B469" t="s">
-        <v>680</v>
+        <v>845</v>
       </c>
       <c r="C469" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>103</v>
@@ -34220,13 +34440,13 @@
     </row>
     <row r="470" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>1033</v>
+        <v>1143</v>
       </c>
       <c r="B470" t="s">
-        <v>683</v>
+        <v>848</v>
       </c>
       <c r="C470" t="s">
-        <v>1034</v>
+        <v>1144</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>103</v>
@@ -34285,13 +34505,13 @@
     </row>
     <row r="471" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1035</v>
+        <v>1145</v>
       </c>
       <c r="B471" t="s">
-        <v>686</v>
+        <v>851</v>
       </c>
       <c r="C471" t="s">
-        <v>1036</v>
+        <v>1146</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>103</v>
@@ -34350,13 +34570,13 @@
     </row>
     <row r="472" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1037</v>
+        <v>1147</v>
       </c>
       <c r="B472" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
       <c r="C472" t="s">
-        <v>1038</v>
+        <v>1148</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>103</v>
@@ -34415,13 +34635,13 @@
     </row>
     <row r="473" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>1039</v>
+        <v>1149</v>
       </c>
       <c r="B473" t="s">
-        <v>692</v>
+        <v>857</v>
       </c>
       <c r="C473" t="s">
-        <v>1040</v>
+        <v>1150</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>103</v>
@@ -34480,13 +34700,13 @@
     </row>
     <row r="474" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1041</v>
+        <v>1151</v>
       </c>
       <c r="B474" t="s">
-        <v>695</v>
+        <v>860</v>
       </c>
       <c r="C474" t="s">
-        <v>1042</v>
+        <v>1152</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>103</v>
@@ -34545,13 +34765,13 @@
     </row>
     <row r="475" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1043</v>
+        <v>1153</v>
       </c>
       <c r="B475" t="s">
-        <v>698</v>
+        <v>863</v>
       </c>
       <c r="C475" t="s">
-        <v>1044</v>
+        <v>1154</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>103</v>
@@ -34610,13 +34830,13 @@
     </row>
     <row r="476" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>1045</v>
+        <v>1155</v>
       </c>
       <c r="B476" t="s">
-        <v>701</v>
+        <v>866</v>
       </c>
       <c r="C476" t="s">
-        <v>1046</v>
+        <v>1156</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>103</v>
@@ -34675,13 +34895,13 @@
     </row>
     <row r="477" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1047</v>
+        <v>1157</v>
       </c>
       <c r="B477" t="s">
-        <v>704</v>
+        <v>869</v>
       </c>
       <c r="C477" t="s">
-        <v>1048</v>
+        <v>1158</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>103</v>
@@ -34740,13 +34960,13 @@
     </row>
     <row r="478" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1049</v>
+        <v>1159</v>
       </c>
       <c r="B478" t="s">
-        <v>707</v>
+        <v>872</v>
       </c>
       <c r="C478" t="s">
-        <v>1050</v>
+        <v>1160</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>103</v>
@@ -34805,13 +35025,13 @@
     </row>
     <row r="479" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1051</v>
+        <v>1161</v>
       </c>
       <c r="B479" t="s">
-        <v>710</v>
+        <v>875</v>
       </c>
       <c r="C479" t="s">
-        <v>1052</v>
+        <v>1162</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>103</v>
@@ -34870,13 +35090,13 @@
     </row>
     <row r="480" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1053</v>
+        <v>1163</v>
       </c>
       <c r="B480" t="s">
-        <v>713</v>
+        <v>878</v>
       </c>
       <c r="C480" t="s">
-        <v>1054</v>
+        <v>1164</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>103</v>
@@ -34935,13 +35155,13 @@
     </row>
     <row r="481" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1055</v>
+        <v>1165</v>
       </c>
       <c r="B481" t="s">
-        <v>716</v>
+        <v>881</v>
       </c>
       <c r="C481" t="s">
-        <v>1056</v>
+        <v>1166</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>103</v>
@@ -35000,13 +35220,13 @@
     </row>
     <row r="482" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1057</v>
+        <v>1167</v>
       </c>
       <c r="B482" t="s">
-        <v>719</v>
+        <v>884</v>
       </c>
       <c r="C482" t="s">
-        <v>1058</v>
+        <v>1168</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>103</v>
@@ -35065,13 +35285,13 @@
     </row>
     <row r="483" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1059</v>
+        <v>1169</v>
       </c>
       <c r="B483" t="s">
-        <v>722</v>
+        <v>887</v>
       </c>
       <c r="C483" t="s">
-        <v>1060</v>
+        <v>1170</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>103</v>
@@ -35130,13 +35350,13 @@
     </row>
     <row r="484" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1061</v>
+        <v>1171</v>
       </c>
       <c r="B484" t="s">
-        <v>725</v>
+        <v>890</v>
       </c>
       <c r="C484" t="s">
-        <v>1062</v>
+        <v>1172</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>103</v>
@@ -35195,13 +35415,13 @@
     </row>
     <row r="485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1063</v>
+        <v>1173</v>
       </c>
       <c r="B485" t="s">
-        <v>728</v>
+        <v>893</v>
       </c>
       <c r="C485" t="s">
-        <v>1064</v>
+        <v>1174</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>103</v>
@@ -35260,13 +35480,13 @@
     </row>
     <row r="486" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1065</v>
+        <v>1175</v>
       </c>
       <c r="B486" t="s">
-        <v>731</v>
+        <v>896</v>
       </c>
       <c r="C486" t="s">
-        <v>1066</v>
+        <v>1176</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>103</v>
@@ -35325,13 +35545,13 @@
     </row>
     <row r="487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1067</v>
+        <v>1177</v>
       </c>
       <c r="B487" t="s">
-        <v>734</v>
+        <v>899</v>
       </c>
       <c r="C487" t="s">
-        <v>1068</v>
+        <v>1178</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>103</v>
@@ -35390,13 +35610,13 @@
     </row>
     <row r="488" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1069</v>
+        <v>1179</v>
       </c>
       <c r="B488" t="s">
-        <v>737</v>
+        <v>902</v>
       </c>
       <c r="C488" t="s">
-        <v>1070</v>
+        <v>1180</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>103</v>
@@ -35455,13 +35675,13 @@
     </row>
     <row r="489" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1071</v>
+        <v>1181</v>
       </c>
       <c r="B489" t="s">
-        <v>740</v>
+        <v>905</v>
       </c>
       <c r="C489" t="s">
-        <v>1072</v>
+        <v>1182</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>103</v>
@@ -35520,13 +35740,13 @@
     </row>
     <row r="490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1073</v>
+        <v>1183</v>
       </c>
       <c r="B490" t="s">
-        <v>743</v>
+        <v>908</v>
       </c>
       <c r="C490" t="s">
-        <v>1074</v>
+        <v>1184</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>103</v>
@@ -35585,13 +35805,13 @@
     </row>
     <row r="491" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1075</v>
+        <v>1185</v>
       </c>
       <c r="B491" t="s">
-        <v>746</v>
+        <v>911</v>
       </c>
       <c r="C491" t="s">
-        <v>1076</v>
+        <v>1186</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>103</v>
@@ -35650,13 +35870,13 @@
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1077</v>
+        <v>1187</v>
       </c>
       <c r="B492" t="s">
-        <v>749</v>
+        <v>914</v>
       </c>
       <c r="C492" t="s">
-        <v>1078</v>
+        <v>1188</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>103</v>
@@ -35715,13 +35935,13 @@
     </row>
     <row r="493" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1079</v>
+        <v>1189</v>
       </c>
       <c r="B493" t="s">
-        <v>752</v>
+        <v>917</v>
       </c>
       <c r="C493" t="s">
-        <v>1080</v>
+        <v>1190</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>103</v>
@@ -35780,13 +36000,13 @@
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1081</v>
+        <v>1191</v>
       </c>
       <c r="B494" t="s">
-        <v>755</v>
+        <v>920</v>
       </c>
       <c r="C494" t="s">
-        <v>1082</v>
+        <v>1192</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>103</v>
@@ -35845,13 +36065,13 @@
     </row>
     <row r="495" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1083</v>
+        <v>1193</v>
       </c>
       <c r="B495" t="s">
-        <v>758</v>
+        <v>923</v>
       </c>
       <c r="C495" t="s">
-        <v>1084</v>
+        <v>1194</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>103</v>
@@ -35910,13 +36130,13 @@
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1085</v>
+        <v>1195</v>
       </c>
       <c r="B496" t="s">
-        <v>761</v>
+        <v>926</v>
       </c>
       <c r="C496" t="s">
-        <v>1086</v>
+        <v>1196</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>103</v>
@@ -35975,13 +36195,13 @@
     </row>
     <row r="497" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1087</v>
+        <v>1197</v>
       </c>
       <c r="B497" t="s">
-        <v>764</v>
+        <v>929</v>
       </c>
       <c r="C497" t="s">
-        <v>1088</v>
+        <v>1198</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>103</v>
@@ -36040,13 +36260,13 @@
     </row>
     <row r="498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1089</v>
+        <v>1199</v>
       </c>
       <c r="B498" t="s">
-        <v>767</v>
+        <v>932</v>
       </c>
       <c r="C498" t="s">
-        <v>1090</v>
+        <v>1200</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>103</v>
@@ -36105,13 +36325,13 @@
     </row>
     <row r="499" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1091</v>
+        <v>1201</v>
       </c>
       <c r="B499" t="s">
-        <v>770</v>
+        <v>935</v>
       </c>
       <c r="C499" t="s">
-        <v>1092</v>
+        <v>1202</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>103</v>
@@ -36165,3581 +36385,6 @@
         <v>0</v>
       </c>
       <c r="AB499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B500" t="s">
-        <v>773</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F500" t="s">
-        <v>78</v>
-      </c>
-      <c r="G500" t="s">
-        <v>33</v>
-      </c>
-      <c r="J500">
-        <v>0</v>
-      </c>
-      <c r="K500">
-        <v>0</v>
-      </c>
-      <c r="L500">
-        <v>0</v>
-      </c>
-      <c r="M500">
-        <v>0</v>
-      </c>
-      <c r="N500">
-        <v>0</v>
-      </c>
-      <c r="O500">
-        <v>0</v>
-      </c>
-      <c r="P500">
-        <v>0</v>
-      </c>
-      <c r="Q500">
-        <v>14</v>
-      </c>
-      <c r="R500">
-        <v>0</v>
-      </c>
-      <c r="V500" t="s">
-        <v>79</v>
-      </c>
-      <c r="W500">
-        <v>0</v>
-      </c>
-      <c r="X500">
-        <v>0</v>
-      </c>
-      <c r="Y500">
-        <v>100</v>
-      </c>
-      <c r="Z500">
-        <v>0</v>
-      </c>
-      <c r="AB500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B501" t="s">
-        <v>776</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F501" t="s">
-        <v>78</v>
-      </c>
-      <c r="G501" t="s">
-        <v>33</v>
-      </c>
-      <c r="J501">
-        <v>0</v>
-      </c>
-      <c r="K501">
-        <v>0</v>
-      </c>
-      <c r="L501">
-        <v>0</v>
-      </c>
-      <c r="M501">
-        <v>0</v>
-      </c>
-      <c r="N501">
-        <v>0</v>
-      </c>
-      <c r="O501">
-        <v>0</v>
-      </c>
-      <c r="P501">
-        <v>0</v>
-      </c>
-      <c r="Q501">
-        <v>14</v>
-      </c>
-      <c r="R501">
-        <v>0</v>
-      </c>
-      <c r="V501" t="s">
-        <v>79</v>
-      </c>
-      <c r="W501">
-        <v>0</v>
-      </c>
-      <c r="X501">
-        <v>0</v>
-      </c>
-      <c r="Y501">
-        <v>100</v>
-      </c>
-      <c r="Z501">
-        <v>0</v>
-      </c>
-      <c r="AB501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B502" t="s">
-        <v>779</v>
-      </c>
-      <c r="C502" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D502" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F502" t="s">
-        <v>78</v>
-      </c>
-      <c r="G502" t="s">
-        <v>33</v>
-      </c>
-      <c r="J502">
-        <v>0</v>
-      </c>
-      <c r="K502">
-        <v>0</v>
-      </c>
-      <c r="L502">
-        <v>0</v>
-      </c>
-      <c r="M502">
-        <v>0</v>
-      </c>
-      <c r="N502">
-        <v>0</v>
-      </c>
-      <c r="O502">
-        <v>0</v>
-      </c>
-      <c r="P502">
-        <v>0</v>
-      </c>
-      <c r="Q502">
-        <v>14</v>
-      </c>
-      <c r="R502">
-        <v>0</v>
-      </c>
-      <c r="V502" t="s">
-        <v>79</v>
-      </c>
-      <c r="W502">
-        <v>0</v>
-      </c>
-      <c r="X502">
-        <v>0</v>
-      </c>
-      <c r="Y502">
-        <v>100</v>
-      </c>
-      <c r="Z502">
-        <v>0</v>
-      </c>
-      <c r="AB502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B503" t="s">
-        <v>782</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D503" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F503" t="s">
-        <v>78</v>
-      </c>
-      <c r="G503" t="s">
-        <v>33</v>
-      </c>
-      <c r="J503">
-        <v>0</v>
-      </c>
-      <c r="K503">
-        <v>0</v>
-      </c>
-      <c r="L503">
-        <v>0</v>
-      </c>
-      <c r="M503">
-        <v>0</v>
-      </c>
-      <c r="N503">
-        <v>0</v>
-      </c>
-      <c r="O503">
-        <v>0</v>
-      </c>
-      <c r="P503">
-        <v>0</v>
-      </c>
-      <c r="Q503">
-        <v>14</v>
-      </c>
-      <c r="R503">
-        <v>0</v>
-      </c>
-      <c r="V503" t="s">
-        <v>79</v>
-      </c>
-      <c r="W503">
-        <v>0</v>
-      </c>
-      <c r="X503">
-        <v>0</v>
-      </c>
-      <c r="Y503">
-        <v>100</v>
-      </c>
-      <c r="Z503">
-        <v>0</v>
-      </c>
-      <c r="AB503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B504" t="s">
-        <v>785</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D504" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F504" t="s">
-        <v>78</v>
-      </c>
-      <c r="G504" t="s">
-        <v>33</v>
-      </c>
-      <c r="J504">
-        <v>0</v>
-      </c>
-      <c r="K504">
-        <v>0</v>
-      </c>
-      <c r="L504">
-        <v>0</v>
-      </c>
-      <c r="M504">
-        <v>0</v>
-      </c>
-      <c r="N504">
-        <v>0</v>
-      </c>
-      <c r="O504">
-        <v>0</v>
-      </c>
-      <c r="P504">
-        <v>0</v>
-      </c>
-      <c r="Q504">
-        <v>14</v>
-      </c>
-      <c r="R504">
-        <v>0</v>
-      </c>
-      <c r="V504" t="s">
-        <v>79</v>
-      </c>
-      <c r="W504">
-        <v>0</v>
-      </c>
-      <c r="X504">
-        <v>0</v>
-      </c>
-      <c r="Y504">
-        <v>100</v>
-      </c>
-      <c r="Z504">
-        <v>0</v>
-      </c>
-      <c r="AB504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B505" t="s">
-        <v>788</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D505" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F505" t="s">
-        <v>78</v>
-      </c>
-      <c r="G505" t="s">
-        <v>33</v>
-      </c>
-      <c r="J505">
-        <v>0</v>
-      </c>
-      <c r="K505">
-        <v>0</v>
-      </c>
-      <c r="L505">
-        <v>0</v>
-      </c>
-      <c r="M505">
-        <v>0</v>
-      </c>
-      <c r="N505">
-        <v>0</v>
-      </c>
-      <c r="O505">
-        <v>0</v>
-      </c>
-      <c r="P505">
-        <v>0</v>
-      </c>
-      <c r="Q505">
-        <v>14</v>
-      </c>
-      <c r="R505">
-        <v>0</v>
-      </c>
-      <c r="V505" t="s">
-        <v>79</v>
-      </c>
-      <c r="W505">
-        <v>0</v>
-      </c>
-      <c r="X505">
-        <v>0</v>
-      </c>
-      <c r="Y505">
-        <v>100</v>
-      </c>
-      <c r="Z505">
-        <v>0</v>
-      </c>
-      <c r="AB505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B506" t="s">
-        <v>791</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D506" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F506" t="s">
-        <v>78</v>
-      </c>
-      <c r="G506" t="s">
-        <v>33</v>
-      </c>
-      <c r="J506">
-        <v>0</v>
-      </c>
-      <c r="K506">
-        <v>0</v>
-      </c>
-      <c r="L506">
-        <v>0</v>
-      </c>
-      <c r="M506">
-        <v>0</v>
-      </c>
-      <c r="N506">
-        <v>0</v>
-      </c>
-      <c r="O506">
-        <v>0</v>
-      </c>
-      <c r="P506">
-        <v>0</v>
-      </c>
-      <c r="Q506">
-        <v>14</v>
-      </c>
-      <c r="R506">
-        <v>0</v>
-      </c>
-      <c r="V506" t="s">
-        <v>79</v>
-      </c>
-      <c r="W506">
-        <v>0</v>
-      </c>
-      <c r="X506">
-        <v>0</v>
-      </c>
-      <c r="Y506">
-        <v>100</v>
-      </c>
-      <c r="Z506">
-        <v>0</v>
-      </c>
-      <c r="AB506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B507" t="s">
-        <v>794</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D507" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F507" t="s">
-        <v>78</v>
-      </c>
-      <c r="G507" t="s">
-        <v>33</v>
-      </c>
-      <c r="J507">
-        <v>0</v>
-      </c>
-      <c r="K507">
-        <v>0</v>
-      </c>
-      <c r="L507">
-        <v>0</v>
-      </c>
-      <c r="M507">
-        <v>0</v>
-      </c>
-      <c r="N507">
-        <v>0</v>
-      </c>
-      <c r="O507">
-        <v>0</v>
-      </c>
-      <c r="P507">
-        <v>0</v>
-      </c>
-      <c r="Q507">
-        <v>14</v>
-      </c>
-      <c r="R507">
-        <v>0</v>
-      </c>
-      <c r="V507" t="s">
-        <v>79</v>
-      </c>
-      <c r="W507">
-        <v>0</v>
-      </c>
-      <c r="X507">
-        <v>0</v>
-      </c>
-      <c r="Y507">
-        <v>100</v>
-      </c>
-      <c r="Z507">
-        <v>0</v>
-      </c>
-      <c r="AB507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B508" t="s">
-        <v>797</v>
-      </c>
-      <c r="C508" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D508" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F508" t="s">
-        <v>78</v>
-      </c>
-      <c r="G508" t="s">
-        <v>33</v>
-      </c>
-      <c r="J508">
-        <v>0</v>
-      </c>
-      <c r="K508">
-        <v>0</v>
-      </c>
-      <c r="L508">
-        <v>0</v>
-      </c>
-      <c r="M508">
-        <v>0</v>
-      </c>
-      <c r="N508">
-        <v>0</v>
-      </c>
-      <c r="O508">
-        <v>0</v>
-      </c>
-      <c r="P508">
-        <v>0</v>
-      </c>
-      <c r="Q508">
-        <v>14</v>
-      </c>
-      <c r="R508">
-        <v>0</v>
-      </c>
-      <c r="V508" t="s">
-        <v>79</v>
-      </c>
-      <c r="W508">
-        <v>0</v>
-      </c>
-      <c r="X508">
-        <v>0</v>
-      </c>
-      <c r="Y508">
-        <v>100</v>
-      </c>
-      <c r="Z508">
-        <v>0</v>
-      </c>
-      <c r="AB508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B509" t="s">
-        <v>800</v>
-      </c>
-      <c r="C509" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D509" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F509" t="s">
-        <v>78</v>
-      </c>
-      <c r="G509" t="s">
-        <v>33</v>
-      </c>
-      <c r="J509">
-        <v>0</v>
-      </c>
-      <c r="K509">
-        <v>0</v>
-      </c>
-      <c r="L509">
-        <v>0</v>
-      </c>
-      <c r="M509">
-        <v>0</v>
-      </c>
-      <c r="N509">
-        <v>0</v>
-      </c>
-      <c r="O509">
-        <v>0</v>
-      </c>
-      <c r="P509">
-        <v>0</v>
-      </c>
-      <c r="Q509">
-        <v>14</v>
-      </c>
-      <c r="R509">
-        <v>0</v>
-      </c>
-      <c r="V509" t="s">
-        <v>79</v>
-      </c>
-      <c r="W509">
-        <v>0</v>
-      </c>
-      <c r="X509">
-        <v>0</v>
-      </c>
-      <c r="Y509">
-        <v>100</v>
-      </c>
-      <c r="Z509">
-        <v>0</v>
-      </c>
-      <c r="AB509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B510" t="s">
-        <v>803</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D510" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F510" t="s">
-        <v>78</v>
-      </c>
-      <c r="G510" t="s">
-        <v>33</v>
-      </c>
-      <c r="J510">
-        <v>0</v>
-      </c>
-      <c r="K510">
-        <v>0</v>
-      </c>
-      <c r="L510">
-        <v>0</v>
-      </c>
-      <c r="M510">
-        <v>0</v>
-      </c>
-      <c r="N510">
-        <v>0</v>
-      </c>
-      <c r="O510">
-        <v>0</v>
-      </c>
-      <c r="P510">
-        <v>0</v>
-      </c>
-      <c r="Q510">
-        <v>14</v>
-      </c>
-      <c r="R510">
-        <v>0</v>
-      </c>
-      <c r="V510" t="s">
-        <v>79</v>
-      </c>
-      <c r="W510">
-        <v>0</v>
-      </c>
-      <c r="X510">
-        <v>0</v>
-      </c>
-      <c r="Y510">
-        <v>100</v>
-      </c>
-      <c r="Z510">
-        <v>0</v>
-      </c>
-      <c r="AB510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A511" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B511" t="s">
-        <v>806</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D511" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F511" t="s">
-        <v>78</v>
-      </c>
-      <c r="G511" t="s">
-        <v>33</v>
-      </c>
-      <c r="J511">
-        <v>0</v>
-      </c>
-      <c r="K511">
-        <v>0</v>
-      </c>
-      <c r="L511">
-        <v>0</v>
-      </c>
-      <c r="M511">
-        <v>0</v>
-      </c>
-      <c r="N511">
-        <v>0</v>
-      </c>
-      <c r="O511">
-        <v>0</v>
-      </c>
-      <c r="P511">
-        <v>0</v>
-      </c>
-      <c r="Q511">
-        <v>14</v>
-      </c>
-      <c r="R511">
-        <v>0</v>
-      </c>
-      <c r="V511" t="s">
-        <v>79</v>
-      </c>
-      <c r="W511">
-        <v>0</v>
-      </c>
-      <c r="X511">
-        <v>0</v>
-      </c>
-      <c r="Y511">
-        <v>100</v>
-      </c>
-      <c r="Z511">
-        <v>0</v>
-      </c>
-      <c r="AB511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B512" t="s">
-        <v>809</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D512" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F512" t="s">
-        <v>78</v>
-      </c>
-      <c r="G512" t="s">
-        <v>33</v>
-      </c>
-      <c r="J512">
-        <v>0</v>
-      </c>
-      <c r="K512">
-        <v>0</v>
-      </c>
-      <c r="L512">
-        <v>0</v>
-      </c>
-      <c r="M512">
-        <v>0</v>
-      </c>
-      <c r="N512">
-        <v>0</v>
-      </c>
-      <c r="O512">
-        <v>0</v>
-      </c>
-      <c r="P512">
-        <v>0</v>
-      </c>
-      <c r="Q512">
-        <v>14</v>
-      </c>
-      <c r="R512">
-        <v>0</v>
-      </c>
-      <c r="V512" t="s">
-        <v>79</v>
-      </c>
-      <c r="W512">
-        <v>0</v>
-      </c>
-      <c r="X512">
-        <v>0</v>
-      </c>
-      <c r="Y512">
-        <v>100</v>
-      </c>
-      <c r="Z512">
-        <v>0</v>
-      </c>
-      <c r="AB512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B513" t="s">
-        <v>812</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F513" t="s">
-        <v>78</v>
-      </c>
-      <c r="G513" t="s">
-        <v>33</v>
-      </c>
-      <c r="J513">
-        <v>0</v>
-      </c>
-      <c r="K513">
-        <v>0</v>
-      </c>
-      <c r="L513">
-        <v>0</v>
-      </c>
-      <c r="M513">
-        <v>0</v>
-      </c>
-      <c r="N513">
-        <v>0</v>
-      </c>
-      <c r="O513">
-        <v>0</v>
-      </c>
-      <c r="P513">
-        <v>0</v>
-      </c>
-      <c r="Q513">
-        <v>14</v>
-      </c>
-      <c r="R513">
-        <v>0</v>
-      </c>
-      <c r="V513" t="s">
-        <v>79</v>
-      </c>
-      <c r="W513">
-        <v>0</v>
-      </c>
-      <c r="X513">
-        <v>0</v>
-      </c>
-      <c r="Y513">
-        <v>100</v>
-      </c>
-      <c r="Z513">
-        <v>0</v>
-      </c>
-      <c r="AB513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B514" t="s">
-        <v>815</v>
-      </c>
-      <c r="C514" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D514" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F514" t="s">
-        <v>78</v>
-      </c>
-      <c r="G514" t="s">
-        <v>33</v>
-      </c>
-      <c r="J514">
-        <v>0</v>
-      </c>
-      <c r="K514">
-        <v>0</v>
-      </c>
-      <c r="L514">
-        <v>0</v>
-      </c>
-      <c r="M514">
-        <v>0</v>
-      </c>
-      <c r="N514">
-        <v>0</v>
-      </c>
-      <c r="O514">
-        <v>0</v>
-      </c>
-      <c r="P514">
-        <v>0</v>
-      </c>
-      <c r="Q514">
-        <v>14</v>
-      </c>
-      <c r="R514">
-        <v>0</v>
-      </c>
-      <c r="V514" t="s">
-        <v>79</v>
-      </c>
-      <c r="W514">
-        <v>0</v>
-      </c>
-      <c r="X514">
-        <v>0</v>
-      </c>
-      <c r="Y514">
-        <v>100</v>
-      </c>
-      <c r="Z514">
-        <v>0</v>
-      </c>
-      <c r="AB514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B515" t="s">
-        <v>818</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D515" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F515" t="s">
-        <v>78</v>
-      </c>
-      <c r="G515" t="s">
-        <v>33</v>
-      </c>
-      <c r="J515">
-        <v>0</v>
-      </c>
-      <c r="K515">
-        <v>0</v>
-      </c>
-      <c r="L515">
-        <v>0</v>
-      </c>
-      <c r="M515">
-        <v>0</v>
-      </c>
-      <c r="N515">
-        <v>0</v>
-      </c>
-      <c r="O515">
-        <v>0</v>
-      </c>
-      <c r="P515">
-        <v>0</v>
-      </c>
-      <c r="Q515">
-        <v>14</v>
-      </c>
-      <c r="R515">
-        <v>0</v>
-      </c>
-      <c r="V515" t="s">
-        <v>79</v>
-      </c>
-      <c r="W515">
-        <v>0</v>
-      </c>
-      <c r="X515">
-        <v>0</v>
-      </c>
-      <c r="Y515">
-        <v>100</v>
-      </c>
-      <c r="Z515">
-        <v>0</v>
-      </c>
-      <c r="AB515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B516" t="s">
-        <v>821</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D516" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F516" t="s">
-        <v>78</v>
-      </c>
-      <c r="G516" t="s">
-        <v>33</v>
-      </c>
-      <c r="J516">
-        <v>0</v>
-      </c>
-      <c r="K516">
-        <v>0</v>
-      </c>
-      <c r="L516">
-        <v>0</v>
-      </c>
-      <c r="M516">
-        <v>0</v>
-      </c>
-      <c r="N516">
-        <v>0</v>
-      </c>
-      <c r="O516">
-        <v>0</v>
-      </c>
-      <c r="P516">
-        <v>0</v>
-      </c>
-      <c r="Q516">
-        <v>14</v>
-      </c>
-      <c r="R516">
-        <v>0</v>
-      </c>
-      <c r="V516" t="s">
-        <v>79</v>
-      </c>
-      <c r="W516">
-        <v>0</v>
-      </c>
-      <c r="X516">
-        <v>0</v>
-      </c>
-      <c r="Y516">
-        <v>100</v>
-      </c>
-      <c r="Z516">
-        <v>0</v>
-      </c>
-      <c r="AB516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B517" t="s">
-        <v>824</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D517" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F517" t="s">
-        <v>78</v>
-      </c>
-      <c r="G517" t="s">
-        <v>33</v>
-      </c>
-      <c r="J517">
-        <v>0</v>
-      </c>
-      <c r="K517">
-        <v>0</v>
-      </c>
-      <c r="L517">
-        <v>0</v>
-      </c>
-      <c r="M517">
-        <v>0</v>
-      </c>
-      <c r="N517">
-        <v>0</v>
-      </c>
-      <c r="O517">
-        <v>0</v>
-      </c>
-      <c r="P517">
-        <v>0</v>
-      </c>
-      <c r="Q517">
-        <v>14</v>
-      </c>
-      <c r="R517">
-        <v>0</v>
-      </c>
-      <c r="V517" t="s">
-        <v>79</v>
-      </c>
-      <c r="W517">
-        <v>0</v>
-      </c>
-      <c r="X517">
-        <v>0</v>
-      </c>
-      <c r="Y517">
-        <v>100</v>
-      </c>
-      <c r="Z517">
-        <v>0</v>
-      </c>
-      <c r="AB517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B518" t="s">
-        <v>827</v>
-      </c>
-      <c r="C518" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D518" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F518" t="s">
-        <v>78</v>
-      </c>
-      <c r="G518" t="s">
-        <v>33</v>
-      </c>
-      <c r="J518">
-        <v>0</v>
-      </c>
-      <c r="K518">
-        <v>0</v>
-      </c>
-      <c r="L518">
-        <v>0</v>
-      </c>
-      <c r="M518">
-        <v>0</v>
-      </c>
-      <c r="N518">
-        <v>0</v>
-      </c>
-      <c r="O518">
-        <v>0</v>
-      </c>
-      <c r="P518">
-        <v>0</v>
-      </c>
-      <c r="Q518">
-        <v>14</v>
-      </c>
-      <c r="R518">
-        <v>0</v>
-      </c>
-      <c r="V518" t="s">
-        <v>79</v>
-      </c>
-      <c r="W518">
-        <v>0</v>
-      </c>
-      <c r="X518">
-        <v>0</v>
-      </c>
-      <c r="Y518">
-        <v>100</v>
-      </c>
-      <c r="Z518">
-        <v>0</v>
-      </c>
-      <c r="AB518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A519" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B519" t="s">
-        <v>830</v>
-      </c>
-      <c r="C519" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F519" t="s">
-        <v>78</v>
-      </c>
-      <c r="G519" t="s">
-        <v>33</v>
-      </c>
-      <c r="J519">
-        <v>0</v>
-      </c>
-      <c r="K519">
-        <v>0</v>
-      </c>
-      <c r="L519">
-        <v>0</v>
-      </c>
-      <c r="M519">
-        <v>0</v>
-      </c>
-      <c r="N519">
-        <v>0</v>
-      </c>
-      <c r="O519">
-        <v>0</v>
-      </c>
-      <c r="P519">
-        <v>0</v>
-      </c>
-      <c r="Q519">
-        <v>14</v>
-      </c>
-      <c r="R519">
-        <v>0</v>
-      </c>
-      <c r="V519" t="s">
-        <v>79</v>
-      </c>
-      <c r="W519">
-        <v>0</v>
-      </c>
-      <c r="X519">
-        <v>0</v>
-      </c>
-      <c r="Y519">
-        <v>100</v>
-      </c>
-      <c r="Z519">
-        <v>0</v>
-      </c>
-      <c r="AB519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B520" t="s">
-        <v>833</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F520" t="s">
-        <v>78</v>
-      </c>
-      <c r="G520" t="s">
-        <v>33</v>
-      </c>
-      <c r="J520">
-        <v>0</v>
-      </c>
-      <c r="K520">
-        <v>0</v>
-      </c>
-      <c r="L520">
-        <v>0</v>
-      </c>
-      <c r="M520">
-        <v>0</v>
-      </c>
-      <c r="N520">
-        <v>0</v>
-      </c>
-      <c r="O520">
-        <v>0</v>
-      </c>
-      <c r="P520">
-        <v>0</v>
-      </c>
-      <c r="Q520">
-        <v>14</v>
-      </c>
-      <c r="R520">
-        <v>0</v>
-      </c>
-      <c r="V520" t="s">
-        <v>79</v>
-      </c>
-      <c r="W520">
-        <v>0</v>
-      </c>
-      <c r="X520">
-        <v>0</v>
-      </c>
-      <c r="Y520">
-        <v>100</v>
-      </c>
-      <c r="Z520">
-        <v>0</v>
-      </c>
-      <c r="AB520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A521" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B521" t="s">
-        <v>836</v>
-      </c>
-      <c r="C521" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D521" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F521" t="s">
-        <v>78</v>
-      </c>
-      <c r="G521" t="s">
-        <v>33</v>
-      </c>
-      <c r="J521">
-        <v>0</v>
-      </c>
-      <c r="K521">
-        <v>0</v>
-      </c>
-      <c r="L521">
-        <v>0</v>
-      </c>
-      <c r="M521">
-        <v>0</v>
-      </c>
-      <c r="N521">
-        <v>0</v>
-      </c>
-      <c r="O521">
-        <v>0</v>
-      </c>
-      <c r="P521">
-        <v>0</v>
-      </c>
-      <c r="Q521">
-        <v>14</v>
-      </c>
-      <c r="R521">
-        <v>0</v>
-      </c>
-      <c r="V521" t="s">
-        <v>79</v>
-      </c>
-      <c r="W521">
-        <v>0</v>
-      </c>
-      <c r="X521">
-        <v>0</v>
-      </c>
-      <c r="Y521">
-        <v>100</v>
-      </c>
-      <c r="Z521">
-        <v>0</v>
-      </c>
-      <c r="AB521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B522" t="s">
-        <v>839</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D522" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F522" t="s">
-        <v>78</v>
-      </c>
-      <c r="G522" t="s">
-        <v>33</v>
-      </c>
-      <c r="J522">
-        <v>0</v>
-      </c>
-      <c r="K522">
-        <v>0</v>
-      </c>
-      <c r="L522">
-        <v>0</v>
-      </c>
-      <c r="M522">
-        <v>0</v>
-      </c>
-      <c r="N522">
-        <v>0</v>
-      </c>
-      <c r="O522">
-        <v>0</v>
-      </c>
-      <c r="P522">
-        <v>0</v>
-      </c>
-      <c r="Q522">
-        <v>14</v>
-      </c>
-      <c r="R522">
-        <v>0</v>
-      </c>
-      <c r="V522" t="s">
-        <v>79</v>
-      </c>
-      <c r="W522">
-        <v>0</v>
-      </c>
-      <c r="X522">
-        <v>0</v>
-      </c>
-      <c r="Y522">
-        <v>100</v>
-      </c>
-      <c r="Z522">
-        <v>0</v>
-      </c>
-      <c r="AB522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B523" t="s">
-        <v>842</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F523" t="s">
-        <v>78</v>
-      </c>
-      <c r="G523" t="s">
-        <v>33</v>
-      </c>
-      <c r="J523">
-        <v>0</v>
-      </c>
-      <c r="K523">
-        <v>0</v>
-      </c>
-      <c r="L523">
-        <v>0</v>
-      </c>
-      <c r="M523">
-        <v>0</v>
-      </c>
-      <c r="N523">
-        <v>0</v>
-      </c>
-      <c r="O523">
-        <v>0</v>
-      </c>
-      <c r="P523">
-        <v>0</v>
-      </c>
-      <c r="Q523">
-        <v>14</v>
-      </c>
-      <c r="R523">
-        <v>0</v>
-      </c>
-      <c r="V523" t="s">
-        <v>79</v>
-      </c>
-      <c r="W523">
-        <v>0</v>
-      </c>
-      <c r="X523">
-        <v>0</v>
-      </c>
-      <c r="Y523">
-        <v>100</v>
-      </c>
-      <c r="Z523">
-        <v>0</v>
-      </c>
-      <c r="AB523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B524" t="s">
-        <v>845</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D524" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F524" t="s">
-        <v>78</v>
-      </c>
-      <c r="G524" t="s">
-        <v>33</v>
-      </c>
-      <c r="J524">
-        <v>0</v>
-      </c>
-      <c r="K524">
-        <v>0</v>
-      </c>
-      <c r="L524">
-        <v>0</v>
-      </c>
-      <c r="M524">
-        <v>0</v>
-      </c>
-      <c r="N524">
-        <v>0</v>
-      </c>
-      <c r="O524">
-        <v>0</v>
-      </c>
-      <c r="P524">
-        <v>0</v>
-      </c>
-      <c r="Q524">
-        <v>14</v>
-      </c>
-      <c r="R524">
-        <v>0</v>
-      </c>
-      <c r="V524" t="s">
-        <v>79</v>
-      </c>
-      <c r="W524">
-        <v>0</v>
-      </c>
-      <c r="X524">
-        <v>0</v>
-      </c>
-      <c r="Y524">
-        <v>100</v>
-      </c>
-      <c r="Z524">
-        <v>0</v>
-      </c>
-      <c r="AB524">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B525" t="s">
-        <v>848</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D525" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F525" t="s">
-        <v>78</v>
-      </c>
-      <c r="G525" t="s">
-        <v>33</v>
-      </c>
-      <c r="J525">
-        <v>0</v>
-      </c>
-      <c r="K525">
-        <v>0</v>
-      </c>
-      <c r="L525">
-        <v>0</v>
-      </c>
-      <c r="M525">
-        <v>0</v>
-      </c>
-      <c r="N525">
-        <v>0</v>
-      </c>
-      <c r="O525">
-        <v>0</v>
-      </c>
-      <c r="P525">
-        <v>0</v>
-      </c>
-      <c r="Q525">
-        <v>14</v>
-      </c>
-      <c r="R525">
-        <v>0</v>
-      </c>
-      <c r="V525" t="s">
-        <v>79</v>
-      </c>
-      <c r="W525">
-        <v>0</v>
-      </c>
-      <c r="X525">
-        <v>0</v>
-      </c>
-      <c r="Y525">
-        <v>100</v>
-      </c>
-      <c r="Z525">
-        <v>0</v>
-      </c>
-      <c r="AB525">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A526" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B526" t="s">
-        <v>851</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D526" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F526" t="s">
-        <v>78</v>
-      </c>
-      <c r="G526" t="s">
-        <v>33</v>
-      </c>
-      <c r="J526">
-        <v>0</v>
-      </c>
-      <c r="K526">
-        <v>0</v>
-      </c>
-      <c r="L526">
-        <v>0</v>
-      </c>
-      <c r="M526">
-        <v>0</v>
-      </c>
-      <c r="N526">
-        <v>0</v>
-      </c>
-      <c r="O526">
-        <v>0</v>
-      </c>
-      <c r="P526">
-        <v>0</v>
-      </c>
-      <c r="Q526">
-        <v>14</v>
-      </c>
-      <c r="R526">
-        <v>0</v>
-      </c>
-      <c r="V526" t="s">
-        <v>79</v>
-      </c>
-      <c r="W526">
-        <v>0</v>
-      </c>
-      <c r="X526">
-        <v>0</v>
-      </c>
-      <c r="Y526">
-        <v>100</v>
-      </c>
-      <c r="Z526">
-        <v>0</v>
-      </c>
-      <c r="AB526">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A527" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B527" t="s">
-        <v>854</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D527" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F527" t="s">
-        <v>78</v>
-      </c>
-      <c r="G527" t="s">
-        <v>33</v>
-      </c>
-      <c r="J527">
-        <v>0</v>
-      </c>
-      <c r="K527">
-        <v>0</v>
-      </c>
-      <c r="L527">
-        <v>0</v>
-      </c>
-      <c r="M527">
-        <v>0</v>
-      </c>
-      <c r="N527">
-        <v>0</v>
-      </c>
-      <c r="O527">
-        <v>0</v>
-      </c>
-      <c r="P527">
-        <v>0</v>
-      </c>
-      <c r="Q527">
-        <v>14</v>
-      </c>
-      <c r="R527">
-        <v>0</v>
-      </c>
-      <c r="V527" t="s">
-        <v>79</v>
-      </c>
-      <c r="W527">
-        <v>0</v>
-      </c>
-      <c r="X527">
-        <v>0</v>
-      </c>
-      <c r="Y527">
-        <v>100</v>
-      </c>
-      <c r="Z527">
-        <v>0</v>
-      </c>
-      <c r="AB527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A528" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B528" t="s">
-        <v>857</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F528" t="s">
-        <v>78</v>
-      </c>
-      <c r="G528" t="s">
-        <v>33</v>
-      </c>
-      <c r="J528">
-        <v>0</v>
-      </c>
-      <c r="K528">
-        <v>0</v>
-      </c>
-      <c r="L528">
-        <v>0</v>
-      </c>
-      <c r="M528">
-        <v>0</v>
-      </c>
-      <c r="N528">
-        <v>0</v>
-      </c>
-      <c r="O528">
-        <v>0</v>
-      </c>
-      <c r="P528">
-        <v>0</v>
-      </c>
-      <c r="Q528">
-        <v>14</v>
-      </c>
-      <c r="R528">
-        <v>0</v>
-      </c>
-      <c r="V528" t="s">
-        <v>79</v>
-      </c>
-      <c r="W528">
-        <v>0</v>
-      </c>
-      <c r="X528">
-        <v>0</v>
-      </c>
-      <c r="Y528">
-        <v>100</v>
-      </c>
-      <c r="Z528">
-        <v>0</v>
-      </c>
-      <c r="AB528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A529" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B529" t="s">
-        <v>860</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D529" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F529" t="s">
-        <v>78</v>
-      </c>
-      <c r="G529" t="s">
-        <v>33</v>
-      </c>
-      <c r="J529">
-        <v>0</v>
-      </c>
-      <c r="K529">
-        <v>0</v>
-      </c>
-      <c r="L529">
-        <v>0</v>
-      </c>
-      <c r="M529">
-        <v>0</v>
-      </c>
-      <c r="N529">
-        <v>0</v>
-      </c>
-      <c r="O529">
-        <v>0</v>
-      </c>
-      <c r="P529">
-        <v>0</v>
-      </c>
-      <c r="Q529">
-        <v>14</v>
-      </c>
-      <c r="R529">
-        <v>0</v>
-      </c>
-      <c r="V529" t="s">
-        <v>79</v>
-      </c>
-      <c r="W529">
-        <v>0</v>
-      </c>
-      <c r="X529">
-        <v>0</v>
-      </c>
-      <c r="Y529">
-        <v>100</v>
-      </c>
-      <c r="Z529">
-        <v>0</v>
-      </c>
-      <c r="AB529">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A530" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B530" t="s">
-        <v>863</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D530" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F530" t="s">
-        <v>78</v>
-      </c>
-      <c r="G530" t="s">
-        <v>33</v>
-      </c>
-      <c r="J530">
-        <v>0</v>
-      </c>
-      <c r="K530">
-        <v>0</v>
-      </c>
-      <c r="L530">
-        <v>0</v>
-      </c>
-      <c r="M530">
-        <v>0</v>
-      </c>
-      <c r="N530">
-        <v>0</v>
-      </c>
-      <c r="O530">
-        <v>0</v>
-      </c>
-      <c r="P530">
-        <v>0</v>
-      </c>
-      <c r="Q530">
-        <v>14</v>
-      </c>
-      <c r="R530">
-        <v>0</v>
-      </c>
-      <c r="V530" t="s">
-        <v>79</v>
-      </c>
-      <c r="W530">
-        <v>0</v>
-      </c>
-      <c r="X530">
-        <v>0</v>
-      </c>
-      <c r="Y530">
-        <v>100</v>
-      </c>
-      <c r="Z530">
-        <v>0</v>
-      </c>
-      <c r="AB530">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A531" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B531" t="s">
-        <v>866</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D531" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F531" t="s">
-        <v>78</v>
-      </c>
-      <c r="G531" t="s">
-        <v>33</v>
-      </c>
-      <c r="J531">
-        <v>0</v>
-      </c>
-      <c r="K531">
-        <v>0</v>
-      </c>
-      <c r="L531">
-        <v>0</v>
-      </c>
-      <c r="M531">
-        <v>0</v>
-      </c>
-      <c r="N531">
-        <v>0</v>
-      </c>
-      <c r="O531">
-        <v>0</v>
-      </c>
-      <c r="P531">
-        <v>0</v>
-      </c>
-      <c r="Q531">
-        <v>14</v>
-      </c>
-      <c r="R531">
-        <v>0</v>
-      </c>
-      <c r="V531" t="s">
-        <v>79</v>
-      </c>
-      <c r="W531">
-        <v>0</v>
-      </c>
-      <c r="X531">
-        <v>0</v>
-      </c>
-      <c r="Y531">
-        <v>100</v>
-      </c>
-      <c r="Z531">
-        <v>0</v>
-      </c>
-      <c r="AB531">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A532" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B532" t="s">
-        <v>869</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D532" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F532" t="s">
-        <v>78</v>
-      </c>
-      <c r="G532" t="s">
-        <v>33</v>
-      </c>
-      <c r="J532">
-        <v>0</v>
-      </c>
-      <c r="K532">
-        <v>0</v>
-      </c>
-      <c r="L532">
-        <v>0</v>
-      </c>
-      <c r="M532">
-        <v>0</v>
-      </c>
-      <c r="N532">
-        <v>0</v>
-      </c>
-      <c r="O532">
-        <v>0</v>
-      </c>
-      <c r="P532">
-        <v>0</v>
-      </c>
-      <c r="Q532">
-        <v>14</v>
-      </c>
-      <c r="R532">
-        <v>0</v>
-      </c>
-      <c r="V532" t="s">
-        <v>79</v>
-      </c>
-      <c r="W532">
-        <v>0</v>
-      </c>
-      <c r="X532">
-        <v>0</v>
-      </c>
-      <c r="Y532">
-        <v>100</v>
-      </c>
-      <c r="Z532">
-        <v>0</v>
-      </c>
-      <c r="AB532">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A533" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B533" t="s">
-        <v>872</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D533" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F533" t="s">
-        <v>78</v>
-      </c>
-      <c r="G533" t="s">
-        <v>33</v>
-      </c>
-      <c r="J533">
-        <v>0</v>
-      </c>
-      <c r="K533">
-        <v>0</v>
-      </c>
-      <c r="L533">
-        <v>0</v>
-      </c>
-      <c r="M533">
-        <v>0</v>
-      </c>
-      <c r="N533">
-        <v>0</v>
-      </c>
-      <c r="O533">
-        <v>0</v>
-      </c>
-      <c r="P533">
-        <v>0</v>
-      </c>
-      <c r="Q533">
-        <v>14</v>
-      </c>
-      <c r="R533">
-        <v>0</v>
-      </c>
-      <c r="V533" t="s">
-        <v>79</v>
-      </c>
-      <c r="W533">
-        <v>0</v>
-      </c>
-      <c r="X533">
-        <v>0</v>
-      </c>
-      <c r="Y533">
-        <v>100</v>
-      </c>
-      <c r="Z533">
-        <v>0</v>
-      </c>
-      <c r="AB533">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A534" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B534" t="s">
-        <v>875</v>
-      </c>
-      <c r="C534" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D534" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F534" t="s">
-        <v>78</v>
-      </c>
-      <c r="G534" t="s">
-        <v>33</v>
-      </c>
-      <c r="J534">
-        <v>0</v>
-      </c>
-      <c r="K534">
-        <v>0</v>
-      </c>
-      <c r="L534">
-        <v>0</v>
-      </c>
-      <c r="M534">
-        <v>0</v>
-      </c>
-      <c r="N534">
-        <v>0</v>
-      </c>
-      <c r="O534">
-        <v>0</v>
-      </c>
-      <c r="P534">
-        <v>0</v>
-      </c>
-      <c r="Q534">
-        <v>14</v>
-      </c>
-      <c r="R534">
-        <v>0</v>
-      </c>
-      <c r="V534" t="s">
-        <v>79</v>
-      </c>
-      <c r="W534">
-        <v>0</v>
-      </c>
-      <c r="X534">
-        <v>0</v>
-      </c>
-      <c r="Y534">
-        <v>100</v>
-      </c>
-      <c r="Z534">
-        <v>0</v>
-      </c>
-      <c r="AB534">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A535" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B535" t="s">
-        <v>878</v>
-      </c>
-      <c r="C535" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D535" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F535" t="s">
-        <v>78</v>
-      </c>
-      <c r="G535" t="s">
-        <v>33</v>
-      </c>
-      <c r="J535">
-        <v>0</v>
-      </c>
-      <c r="K535">
-        <v>0</v>
-      </c>
-      <c r="L535">
-        <v>0</v>
-      </c>
-      <c r="M535">
-        <v>0</v>
-      </c>
-      <c r="N535">
-        <v>0</v>
-      </c>
-      <c r="O535">
-        <v>0</v>
-      </c>
-      <c r="P535">
-        <v>0</v>
-      </c>
-      <c r="Q535">
-        <v>14</v>
-      </c>
-      <c r="R535">
-        <v>0</v>
-      </c>
-      <c r="V535" t="s">
-        <v>79</v>
-      </c>
-      <c r="W535">
-        <v>0</v>
-      </c>
-      <c r="X535">
-        <v>0</v>
-      </c>
-      <c r="Y535">
-        <v>100</v>
-      </c>
-      <c r="Z535">
-        <v>0</v>
-      </c>
-      <c r="AB535">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A536" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B536" t="s">
-        <v>881</v>
-      </c>
-      <c r="C536" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D536" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F536" t="s">
-        <v>78</v>
-      </c>
-      <c r="G536" t="s">
-        <v>33</v>
-      </c>
-      <c r="J536">
-        <v>0</v>
-      </c>
-      <c r="K536">
-        <v>0</v>
-      </c>
-      <c r="L536">
-        <v>0</v>
-      </c>
-      <c r="M536">
-        <v>0</v>
-      </c>
-      <c r="N536">
-        <v>0</v>
-      </c>
-      <c r="O536">
-        <v>0</v>
-      </c>
-      <c r="P536">
-        <v>0</v>
-      </c>
-      <c r="Q536">
-        <v>14</v>
-      </c>
-      <c r="R536">
-        <v>0</v>
-      </c>
-      <c r="V536" t="s">
-        <v>79</v>
-      </c>
-      <c r="W536">
-        <v>0</v>
-      </c>
-      <c r="X536">
-        <v>0</v>
-      </c>
-      <c r="Y536">
-        <v>100</v>
-      </c>
-      <c r="Z536">
-        <v>0</v>
-      </c>
-      <c r="AB536">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A537" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B537" t="s">
-        <v>884</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D537" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F537" t="s">
-        <v>78</v>
-      </c>
-      <c r="G537" t="s">
-        <v>33</v>
-      </c>
-      <c r="J537">
-        <v>0</v>
-      </c>
-      <c r="K537">
-        <v>0</v>
-      </c>
-      <c r="L537">
-        <v>0</v>
-      </c>
-      <c r="M537">
-        <v>0</v>
-      </c>
-      <c r="N537">
-        <v>0</v>
-      </c>
-      <c r="O537">
-        <v>0</v>
-      </c>
-      <c r="P537">
-        <v>0</v>
-      </c>
-      <c r="Q537">
-        <v>14</v>
-      </c>
-      <c r="R537">
-        <v>0</v>
-      </c>
-      <c r="V537" t="s">
-        <v>79</v>
-      </c>
-      <c r="W537">
-        <v>0</v>
-      </c>
-      <c r="X537">
-        <v>0</v>
-      </c>
-      <c r="Y537">
-        <v>100</v>
-      </c>
-      <c r="Z537">
-        <v>0</v>
-      </c>
-      <c r="AB537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A538" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B538" t="s">
-        <v>887</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D538" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F538" t="s">
-        <v>78</v>
-      </c>
-      <c r="G538" t="s">
-        <v>33</v>
-      </c>
-      <c r="J538">
-        <v>0</v>
-      </c>
-      <c r="K538">
-        <v>0</v>
-      </c>
-      <c r="L538">
-        <v>0</v>
-      </c>
-      <c r="M538">
-        <v>0</v>
-      </c>
-      <c r="N538">
-        <v>0</v>
-      </c>
-      <c r="O538">
-        <v>0</v>
-      </c>
-      <c r="P538">
-        <v>0</v>
-      </c>
-      <c r="Q538">
-        <v>14</v>
-      </c>
-      <c r="R538">
-        <v>0</v>
-      </c>
-      <c r="V538" t="s">
-        <v>79</v>
-      </c>
-      <c r="W538">
-        <v>0</v>
-      </c>
-      <c r="X538">
-        <v>0</v>
-      </c>
-      <c r="Y538">
-        <v>100</v>
-      </c>
-      <c r="Z538">
-        <v>0</v>
-      </c>
-      <c r="AB538">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A539" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B539" t="s">
-        <v>890</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D539" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F539" t="s">
-        <v>78</v>
-      </c>
-      <c r="G539" t="s">
-        <v>33</v>
-      </c>
-      <c r="J539">
-        <v>0</v>
-      </c>
-      <c r="K539">
-        <v>0</v>
-      </c>
-      <c r="L539">
-        <v>0</v>
-      </c>
-      <c r="M539">
-        <v>0</v>
-      </c>
-      <c r="N539">
-        <v>0</v>
-      </c>
-      <c r="O539">
-        <v>0</v>
-      </c>
-      <c r="P539">
-        <v>0</v>
-      </c>
-      <c r="Q539">
-        <v>14</v>
-      </c>
-      <c r="R539">
-        <v>0</v>
-      </c>
-      <c r="V539" t="s">
-        <v>79</v>
-      </c>
-      <c r="W539">
-        <v>0</v>
-      </c>
-      <c r="X539">
-        <v>0</v>
-      </c>
-      <c r="Y539">
-        <v>100</v>
-      </c>
-      <c r="Z539">
-        <v>0</v>
-      </c>
-      <c r="AB539">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A540" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B540" t="s">
-        <v>893</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D540" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F540" t="s">
-        <v>78</v>
-      </c>
-      <c r="G540" t="s">
-        <v>33</v>
-      </c>
-      <c r="J540">
-        <v>0</v>
-      </c>
-      <c r="K540">
-        <v>0</v>
-      </c>
-      <c r="L540">
-        <v>0</v>
-      </c>
-      <c r="M540">
-        <v>0</v>
-      </c>
-      <c r="N540">
-        <v>0</v>
-      </c>
-      <c r="O540">
-        <v>0</v>
-      </c>
-      <c r="P540">
-        <v>0</v>
-      </c>
-      <c r="Q540">
-        <v>14</v>
-      </c>
-      <c r="R540">
-        <v>0</v>
-      </c>
-      <c r="V540" t="s">
-        <v>79</v>
-      </c>
-      <c r="W540">
-        <v>0</v>
-      </c>
-      <c r="X540">
-        <v>0</v>
-      </c>
-      <c r="Y540">
-        <v>100</v>
-      </c>
-      <c r="Z540">
-        <v>0</v>
-      </c>
-      <c r="AB540">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B541" t="s">
-        <v>896</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D541" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F541" t="s">
-        <v>78</v>
-      </c>
-      <c r="G541" t="s">
-        <v>33</v>
-      </c>
-      <c r="J541">
-        <v>0</v>
-      </c>
-      <c r="K541">
-        <v>0</v>
-      </c>
-      <c r="L541">
-        <v>0</v>
-      </c>
-      <c r="M541">
-        <v>0</v>
-      </c>
-      <c r="N541">
-        <v>0</v>
-      </c>
-      <c r="O541">
-        <v>0</v>
-      </c>
-      <c r="P541">
-        <v>0</v>
-      </c>
-      <c r="Q541">
-        <v>14</v>
-      </c>
-      <c r="R541">
-        <v>0</v>
-      </c>
-      <c r="V541" t="s">
-        <v>79</v>
-      </c>
-      <c r="W541">
-        <v>0</v>
-      </c>
-      <c r="X541">
-        <v>0</v>
-      </c>
-      <c r="Y541">
-        <v>100</v>
-      </c>
-      <c r="Z541">
-        <v>0</v>
-      </c>
-      <c r="AB541">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A542" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B542" t="s">
-        <v>899</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D542" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F542" t="s">
-        <v>78</v>
-      </c>
-      <c r="G542" t="s">
-        <v>33</v>
-      </c>
-      <c r="J542">
-        <v>0</v>
-      </c>
-      <c r="K542">
-        <v>0</v>
-      </c>
-      <c r="L542">
-        <v>0</v>
-      </c>
-      <c r="M542">
-        <v>0</v>
-      </c>
-      <c r="N542">
-        <v>0</v>
-      </c>
-      <c r="O542">
-        <v>0</v>
-      </c>
-      <c r="P542">
-        <v>0</v>
-      </c>
-      <c r="Q542">
-        <v>14</v>
-      </c>
-      <c r="R542">
-        <v>0</v>
-      </c>
-      <c r="V542" t="s">
-        <v>79</v>
-      </c>
-      <c r="W542">
-        <v>0</v>
-      </c>
-      <c r="X542">
-        <v>0</v>
-      </c>
-      <c r="Y542">
-        <v>100</v>
-      </c>
-      <c r="Z542">
-        <v>0</v>
-      </c>
-      <c r="AB542">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B543" t="s">
-        <v>902</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D543" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F543" t="s">
-        <v>78</v>
-      </c>
-      <c r="G543" t="s">
-        <v>33</v>
-      </c>
-      <c r="J543">
-        <v>0</v>
-      </c>
-      <c r="K543">
-        <v>0</v>
-      </c>
-      <c r="L543">
-        <v>0</v>
-      </c>
-      <c r="M543">
-        <v>0</v>
-      </c>
-      <c r="N543">
-        <v>0</v>
-      </c>
-      <c r="O543">
-        <v>0</v>
-      </c>
-      <c r="P543">
-        <v>0</v>
-      </c>
-      <c r="Q543">
-        <v>14</v>
-      </c>
-      <c r="R543">
-        <v>0</v>
-      </c>
-      <c r="V543" t="s">
-        <v>79</v>
-      </c>
-      <c r="W543">
-        <v>0</v>
-      </c>
-      <c r="X543">
-        <v>0</v>
-      </c>
-      <c r="Y543">
-        <v>100</v>
-      </c>
-      <c r="Z543">
-        <v>0</v>
-      </c>
-      <c r="AB543">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B544" t="s">
-        <v>905</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D544" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F544" t="s">
-        <v>78</v>
-      </c>
-      <c r="G544" t="s">
-        <v>33</v>
-      </c>
-      <c r="J544">
-        <v>0</v>
-      </c>
-      <c r="K544">
-        <v>0</v>
-      </c>
-      <c r="L544">
-        <v>0</v>
-      </c>
-      <c r="M544">
-        <v>0</v>
-      </c>
-      <c r="N544">
-        <v>0</v>
-      </c>
-      <c r="O544">
-        <v>0</v>
-      </c>
-      <c r="P544">
-        <v>0</v>
-      </c>
-      <c r="Q544">
-        <v>14</v>
-      </c>
-      <c r="R544">
-        <v>0</v>
-      </c>
-      <c r="V544" t="s">
-        <v>79</v>
-      </c>
-      <c r="W544">
-        <v>0</v>
-      </c>
-      <c r="X544">
-        <v>0</v>
-      </c>
-      <c r="Y544">
-        <v>100</v>
-      </c>
-      <c r="Z544">
-        <v>0</v>
-      </c>
-      <c r="AB544">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A545" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B545" t="s">
-        <v>908</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D545" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F545" t="s">
-        <v>78</v>
-      </c>
-      <c r="G545" t="s">
-        <v>33</v>
-      </c>
-      <c r="J545">
-        <v>0</v>
-      </c>
-      <c r="K545">
-        <v>0</v>
-      </c>
-      <c r="L545">
-        <v>0</v>
-      </c>
-      <c r="M545">
-        <v>0</v>
-      </c>
-      <c r="N545">
-        <v>0</v>
-      </c>
-      <c r="O545">
-        <v>0</v>
-      </c>
-      <c r="P545">
-        <v>0</v>
-      </c>
-      <c r="Q545">
-        <v>14</v>
-      </c>
-      <c r="R545">
-        <v>0</v>
-      </c>
-      <c r="V545" t="s">
-        <v>79</v>
-      </c>
-      <c r="W545">
-        <v>0</v>
-      </c>
-      <c r="X545">
-        <v>0</v>
-      </c>
-      <c r="Y545">
-        <v>100</v>
-      </c>
-      <c r="Z545">
-        <v>0</v>
-      </c>
-      <c r="AB545">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A546" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B546" t="s">
-        <v>911</v>
-      </c>
-      <c r="C546" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D546" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F546" t="s">
-        <v>78</v>
-      </c>
-      <c r="G546" t="s">
-        <v>33</v>
-      </c>
-      <c r="J546">
-        <v>0</v>
-      </c>
-      <c r="K546">
-        <v>0</v>
-      </c>
-      <c r="L546">
-        <v>0</v>
-      </c>
-      <c r="M546">
-        <v>0</v>
-      </c>
-      <c r="N546">
-        <v>0</v>
-      </c>
-      <c r="O546">
-        <v>0</v>
-      </c>
-      <c r="P546">
-        <v>0</v>
-      </c>
-      <c r="Q546">
-        <v>14</v>
-      </c>
-      <c r="R546">
-        <v>0</v>
-      </c>
-      <c r="V546" t="s">
-        <v>79</v>
-      </c>
-      <c r="W546">
-        <v>0</v>
-      </c>
-      <c r="X546">
-        <v>0</v>
-      </c>
-      <c r="Y546">
-        <v>100</v>
-      </c>
-      <c r="Z546">
-        <v>0</v>
-      </c>
-      <c r="AB546">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A547" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B547" t="s">
-        <v>914</v>
-      </c>
-      <c r="C547" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D547" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F547" t="s">
-        <v>78</v>
-      </c>
-      <c r="G547" t="s">
-        <v>33</v>
-      </c>
-      <c r="J547">
-        <v>0</v>
-      </c>
-      <c r="K547">
-        <v>0</v>
-      </c>
-      <c r="L547">
-        <v>0</v>
-      </c>
-      <c r="M547">
-        <v>0</v>
-      </c>
-      <c r="N547">
-        <v>0</v>
-      </c>
-      <c r="O547">
-        <v>0</v>
-      </c>
-      <c r="P547">
-        <v>0</v>
-      </c>
-      <c r="Q547">
-        <v>14</v>
-      </c>
-      <c r="R547">
-        <v>0</v>
-      </c>
-      <c r="V547" t="s">
-        <v>79</v>
-      </c>
-      <c r="W547">
-        <v>0</v>
-      </c>
-      <c r="X547">
-        <v>0</v>
-      </c>
-      <c r="Y547">
-        <v>100</v>
-      </c>
-      <c r="Z547">
-        <v>0</v>
-      </c>
-      <c r="AB547">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B548" t="s">
-        <v>917</v>
-      </c>
-      <c r="C548" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D548" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F548" t="s">
-        <v>78</v>
-      </c>
-      <c r="G548" t="s">
-        <v>33</v>
-      </c>
-      <c r="J548">
-        <v>0</v>
-      </c>
-      <c r="K548">
-        <v>0</v>
-      </c>
-      <c r="L548">
-        <v>0</v>
-      </c>
-      <c r="M548">
-        <v>0</v>
-      </c>
-      <c r="N548">
-        <v>0</v>
-      </c>
-      <c r="O548">
-        <v>0</v>
-      </c>
-      <c r="P548">
-        <v>0</v>
-      </c>
-      <c r="Q548">
-        <v>14</v>
-      </c>
-      <c r="R548">
-        <v>0</v>
-      </c>
-      <c r="V548" t="s">
-        <v>79</v>
-      </c>
-      <c r="W548">
-        <v>0</v>
-      </c>
-      <c r="X548">
-        <v>0</v>
-      </c>
-      <c r="Y548">
-        <v>100</v>
-      </c>
-      <c r="Z548">
-        <v>0</v>
-      </c>
-      <c r="AB548">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B549" t="s">
-        <v>920</v>
-      </c>
-      <c r="C549" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D549" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F549" t="s">
-        <v>78</v>
-      </c>
-      <c r="G549" t="s">
-        <v>33</v>
-      </c>
-      <c r="J549">
-        <v>0</v>
-      </c>
-      <c r="K549">
-        <v>0</v>
-      </c>
-      <c r="L549">
-        <v>0</v>
-      </c>
-      <c r="M549">
-        <v>0</v>
-      </c>
-      <c r="N549">
-        <v>0</v>
-      </c>
-      <c r="O549">
-        <v>0</v>
-      </c>
-      <c r="P549">
-        <v>0</v>
-      </c>
-      <c r="Q549">
-        <v>14</v>
-      </c>
-      <c r="R549">
-        <v>0</v>
-      </c>
-      <c r="V549" t="s">
-        <v>79</v>
-      </c>
-      <c r="W549">
-        <v>0</v>
-      </c>
-      <c r="X549">
-        <v>0</v>
-      </c>
-      <c r="Y549">
-        <v>100</v>
-      </c>
-      <c r="Z549">
-        <v>0</v>
-      </c>
-      <c r="AB549">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B550" t="s">
-        <v>923</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D550" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F550" t="s">
-        <v>78</v>
-      </c>
-      <c r="G550" t="s">
-        <v>33</v>
-      </c>
-      <c r="J550">
-        <v>0</v>
-      </c>
-      <c r="K550">
-        <v>0</v>
-      </c>
-      <c r="L550">
-        <v>0</v>
-      </c>
-      <c r="M550">
-        <v>0</v>
-      </c>
-      <c r="N550">
-        <v>0</v>
-      </c>
-      <c r="O550">
-        <v>0</v>
-      </c>
-      <c r="P550">
-        <v>0</v>
-      </c>
-      <c r="Q550">
-        <v>14</v>
-      </c>
-      <c r="R550">
-        <v>0</v>
-      </c>
-      <c r="V550" t="s">
-        <v>79</v>
-      </c>
-      <c r="W550">
-        <v>0</v>
-      </c>
-      <c r="X550">
-        <v>0</v>
-      </c>
-      <c r="Y550">
-        <v>100</v>
-      </c>
-      <c r="Z550">
-        <v>0</v>
-      </c>
-      <c r="AB550">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B551" t="s">
-        <v>926</v>
-      </c>
-      <c r="C551" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D551" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F551" t="s">
-        <v>78</v>
-      </c>
-      <c r="G551" t="s">
-        <v>33</v>
-      </c>
-      <c r="J551">
-        <v>0</v>
-      </c>
-      <c r="K551">
-        <v>0</v>
-      </c>
-      <c r="L551">
-        <v>0</v>
-      </c>
-      <c r="M551">
-        <v>0</v>
-      </c>
-      <c r="N551">
-        <v>0</v>
-      </c>
-      <c r="O551">
-        <v>0</v>
-      </c>
-      <c r="P551">
-        <v>0</v>
-      </c>
-      <c r="Q551">
-        <v>14</v>
-      </c>
-      <c r="R551">
-        <v>0</v>
-      </c>
-      <c r="V551" t="s">
-        <v>79</v>
-      </c>
-      <c r="W551">
-        <v>0</v>
-      </c>
-      <c r="X551">
-        <v>0</v>
-      </c>
-      <c r="Y551">
-        <v>100</v>
-      </c>
-      <c r="Z551">
-        <v>0</v>
-      </c>
-      <c r="AB551">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B552" t="s">
-        <v>929</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D552" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F552" t="s">
-        <v>78</v>
-      </c>
-      <c r="G552" t="s">
-        <v>33</v>
-      </c>
-      <c r="J552">
-        <v>0</v>
-      </c>
-      <c r="K552">
-        <v>0</v>
-      </c>
-      <c r="L552">
-        <v>0</v>
-      </c>
-      <c r="M552">
-        <v>0</v>
-      </c>
-      <c r="N552">
-        <v>0</v>
-      </c>
-      <c r="O552">
-        <v>0</v>
-      </c>
-      <c r="P552">
-        <v>0</v>
-      </c>
-      <c r="Q552">
-        <v>14</v>
-      </c>
-      <c r="R552">
-        <v>0</v>
-      </c>
-      <c r="V552" t="s">
-        <v>79</v>
-      </c>
-      <c r="W552">
-        <v>0</v>
-      </c>
-      <c r="X552">
-        <v>0</v>
-      </c>
-      <c r="Y552">
-        <v>100</v>
-      </c>
-      <c r="Z552">
-        <v>0</v>
-      </c>
-      <c r="AB552">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B553" t="s">
-        <v>932</v>
-      </c>
-      <c r="C553" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D553" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F553" t="s">
-        <v>78</v>
-      </c>
-      <c r="G553" t="s">
-        <v>33</v>
-      </c>
-      <c r="J553">
-        <v>0</v>
-      </c>
-      <c r="K553">
-        <v>0</v>
-      </c>
-      <c r="L553">
-        <v>0</v>
-      </c>
-      <c r="M553">
-        <v>0</v>
-      </c>
-      <c r="N553">
-        <v>0</v>
-      </c>
-      <c r="O553">
-        <v>0</v>
-      </c>
-      <c r="P553">
-        <v>0</v>
-      </c>
-      <c r="Q553">
-        <v>14</v>
-      </c>
-      <c r="R553">
-        <v>0</v>
-      </c>
-      <c r="V553" t="s">
-        <v>79</v>
-      </c>
-      <c r="W553">
-        <v>0</v>
-      </c>
-      <c r="X553">
-        <v>0</v>
-      </c>
-      <c r="Y553">
-        <v>100</v>
-      </c>
-      <c r="Z553">
-        <v>0</v>
-      </c>
-      <c r="AB553">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B554" t="s">
-        <v>935</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D554" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F554" t="s">
-        <v>78</v>
-      </c>
-      <c r="G554" t="s">
-        <v>33</v>
-      </c>
-      <c r="J554">
-        <v>0</v>
-      </c>
-      <c r="K554">
-        <v>0</v>
-      </c>
-      <c r="L554">
-        <v>0</v>
-      </c>
-      <c r="M554">
-        <v>0</v>
-      </c>
-      <c r="N554">
-        <v>0</v>
-      </c>
-      <c r="O554">
-        <v>0</v>
-      </c>
-      <c r="P554">
-        <v>0</v>
-      </c>
-      <c r="Q554">
-        <v>14</v>
-      </c>
-      <c r="R554">
-        <v>0</v>
-      </c>
-      <c r="V554" t="s">
-        <v>79</v>
-      </c>
-      <c r="W554">
-        <v>0</v>
-      </c>
-      <c r="X554">
-        <v>0</v>
-      </c>
-      <c r="Y554">
-        <v>100</v>
-      </c>
-      <c r="Z554">
-        <v>0</v>
-      </c>
-      <c r="AB554">
         <v>0</v>
       </c>
     </row>

--- a/24_Agro_24.xlsx
+++ b/24_Agro_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\24-AGR-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000FFCF-CC58-4BB3-9FE6-55060DBD9864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804017B9-376C-4C74-AF4F-672AA628EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{270B01E8-BC1B-48F2-A63B-1CB23688CFEC}"/>
   </bookViews>
@@ -4527,7 +4527,7 @@
   <dimension ref="A1:AH499"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A471" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C485" sqref="C485"/>
+      <selection activeCell="A499" sqref="A499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -10490,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="O246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P246">
         <v>0</v>
@@ -20005,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="O247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P247">
         <v>0</v>
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="O248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="O249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -20191,7 +20191,7 @@
         <v>0</v>
       </c>
       <c r="O250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P250">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="O251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P251">
         <v>0</v>
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="O252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P252">
         <v>0</v>
@@ -20377,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="O253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P253">
         <v>0</v>
@@ -20439,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="O254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254">
         <v>0</v>
@@ -20501,7 +20501,7 @@
         <v>0</v>
       </c>
       <c r="O255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P255">
         <v>0</v>
@@ -20563,7 +20563,7 @@
         <v>0</v>
       </c>
       <c r="O256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P256">
         <v>0</v>
@@ -20625,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="O257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P257">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="O319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P319">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="O322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P322">
         <v>0</v>
@@ -24918,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="O323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P323">
         <v>0</v>
@@ -25178,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="O327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P327">
         <v>0</v>
@@ -25243,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="O328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P328">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="O331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P331">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="O334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P334">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="O337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P337">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="O341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341">
         <v>0</v>
@@ -26218,7 +26218,7 @@
         <v>0</v>
       </c>
       <c r="O343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P343">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>0</v>
       </c>
       <c r="O347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P347">
         <v>0</v>
@@ -26543,7 +26543,7 @@
         <v>0</v>
       </c>
       <c r="O348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P348">
         <v>0</v>
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="O349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P349">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P355">
         <v>0</v>
@@ -27063,7 +27063,7 @@
         <v>0</v>
       </c>
       <c r="O356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P356">
         <v>0</v>
@@ -27323,7 +27323,7 @@
         <v>0</v>
       </c>
       <c r="O360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P360">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="O488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P488">
         <v>0</v>
@@ -35708,7 +35708,7 @@
         <v>0</v>
       </c>
       <c r="O489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P489">
         <v>0</v>
@@ -35773,7 +35773,7 @@
         <v>0</v>
       </c>
       <c r="O490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P490">
         <v>0</v>
@@ -35838,7 +35838,7 @@
         <v>0</v>
       </c>
       <c r="O491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P491">
         <v>0</v>
@@ -35903,7 +35903,7 @@
         <v>0</v>
       </c>
       <c r="O492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P492">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="O493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P493">
         <v>0</v>
@@ -36033,7 +36033,7 @@
         <v>0</v>
       </c>
       <c r="O494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P494">
         <v>0</v>
@@ -36098,7 +36098,7 @@
         <v>0</v>
       </c>
       <c r="O495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P495">
         <v>0</v>
@@ -36163,7 +36163,7 @@
         <v>0</v>
       </c>
       <c r="O496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P496">
         <v>0</v>
@@ -36228,7 +36228,7 @@
         <v>0</v>
       </c>
       <c r="O497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P497">
         <v>0</v>
@@ -36293,7 +36293,7 @@
         <v>0</v>
       </c>
       <c r="O498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P498">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>0</v>
       </c>
       <c r="O499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P499">
         <v>0</v>
